--- a/TCKT.xlsx
+++ b/TCKT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nghingo/Documents/GitHub/tcvn-text-recogine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CCDBB46-A680-4C52-B8DA-C691C010029E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AFDAAC-8F0F-164B-BA15-E559F0FEE0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="1180" yWindow="500" windowWidth="20500" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AppSheet.ViewData.2024-08-12" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5223" uniqueCount="2200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5226" uniqueCount="2201">
   <si>
     <t>Mã số</t>
   </si>
@@ -6620,12 +6620,15 @@
   </si>
   <si>
     <t>Tiêu chuẩn xây dựng Việt Nam TCXDVN 336:2005 về vữa dán gạch ốp lát - yêu cầu kỹ thuật và phương pháp thử</t>
+  </si>
+  <si>
+    <t>QCVN QTĐ-5 : 2009 BCT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7166,9 +7169,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7206,7 +7209,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7312,7 +7315,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7454,29 +7457,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1071"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K1072"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A1063" workbookViewId="0">
+      <selection activeCell="D1073" sqref="D1073"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7508,7 +7511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -7534,7 +7537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -7560,7 +7563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -7589,7 +7592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -7615,7 +7618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -7644,7 +7647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>26</v>
       </c>
@@ -7670,7 +7673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -7696,7 +7699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -7722,7 +7725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -7748,7 +7751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>35</v>
       </c>
@@ -7774,7 +7777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>37</v>
       </c>
@@ -7800,7 +7803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -7826,7 +7829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>41</v>
       </c>
@@ -7852,7 +7855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>43</v>
       </c>
@@ -7878,7 +7881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>46</v>
       </c>
@@ -7904,7 +7907,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>48</v>
       </c>
@@ -7930,7 +7933,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>50</v>
       </c>
@@ -7956,7 +7959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>53</v>
       </c>
@@ -7985,7 +7988,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>56</v>
       </c>
@@ -8011,7 +8014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>56</v>
       </c>
@@ -8040,7 +8043,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>60</v>
       </c>
@@ -8066,7 +8069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>62</v>
       </c>
@@ -8092,7 +8095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>64</v>
       </c>
@@ -8118,7 +8121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>67</v>
       </c>
@@ -8144,7 +8147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>69</v>
       </c>
@@ -8170,7 +8173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>71</v>
       </c>
@@ -8196,7 +8199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>73</v>
       </c>
@@ -8222,7 +8225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>75</v>
       </c>
@@ -8245,7 +8248,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>78</v>
       </c>
@@ -8271,7 +8274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>80</v>
       </c>
@@ -8294,7 +8297,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>82</v>
       </c>
@@ -8323,7 +8326,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>85</v>
       </c>
@@ -8349,7 +8352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>87</v>
       </c>
@@ -8375,7 +8378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>89</v>
       </c>
@@ -8401,7 +8404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>91</v>
       </c>
@@ -8427,7 +8430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>93</v>
       </c>
@@ -8453,7 +8456,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>93</v>
       </c>
@@ -8479,7 +8482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>97</v>
       </c>
@@ -8505,7 +8508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>99</v>
       </c>
@@ -8531,7 +8534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>101</v>
       </c>
@@ -8557,7 +8560,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>101</v>
       </c>
@@ -8583,7 +8586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>104</v>
       </c>
@@ -8609,7 +8612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>106</v>
       </c>
@@ -8635,7 +8638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>108</v>
       </c>
@@ -8661,7 +8664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>110</v>
       </c>
@@ -8687,7 +8690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>112</v>
       </c>
@@ -8713,7 +8716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>114</v>
       </c>
@@ -8739,7 +8742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>116</v>
       </c>
@@ -8765,7 +8768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>118</v>
       </c>
@@ -8791,7 +8794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>120</v>
       </c>
@@ -8817,7 +8820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>122</v>
       </c>
@@ -8843,7 +8846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>124</v>
       </c>
@@ -8869,7 +8872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>126</v>
       </c>
@@ -8895,7 +8898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>128</v>
       </c>
@@ -8921,7 +8924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>130</v>
       </c>
@@ -8947,7 +8950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>132</v>
       </c>
@@ -8973,7 +8976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>134</v>
       </c>
@@ -8999,7 +9002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>137</v>
       </c>
@@ -9025,7 +9028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>139</v>
       </c>
@@ -9051,7 +9054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>141</v>
       </c>
@@ -9077,7 +9080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>143</v>
       </c>
@@ -9103,7 +9106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>143</v>
       </c>
@@ -9129,7 +9132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>146</v>
       </c>
@@ -9152,7 +9155,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>148</v>
       </c>
@@ -9178,7 +9181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>150</v>
       </c>
@@ -9204,7 +9207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>152</v>
       </c>
@@ -9230,7 +9233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>154</v>
       </c>
@@ -9253,7 +9256,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>156</v>
       </c>
@@ -9279,7 +9282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>158</v>
       </c>
@@ -9305,7 +9308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>160</v>
       </c>
@@ -9331,7 +9334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>162</v>
       </c>
@@ -9357,7 +9360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>164</v>
       </c>
@@ -9383,7 +9386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>167</v>
       </c>
@@ -9409,7 +9412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>169</v>
       </c>
@@ -9435,7 +9438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>171</v>
       </c>
@@ -9461,7 +9464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>174</v>
       </c>
@@ -9487,7 +9490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>176</v>
       </c>
@@ -9513,7 +9516,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>178</v>
       </c>
@@ -9539,7 +9542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>180</v>
       </c>
@@ -9562,7 +9565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>182</v>
       </c>
@@ -9588,7 +9591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>184</v>
       </c>
@@ -9614,7 +9617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>186</v>
       </c>
@@ -9640,7 +9643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>188</v>
       </c>
@@ -9666,7 +9669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>190</v>
       </c>
@@ -9692,7 +9695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>192</v>
       </c>
@@ -9718,7 +9721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>192</v>
       </c>
@@ -9744,7 +9747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>195</v>
       </c>
@@ -9767,7 +9770,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>197</v>
       </c>
@@ -9793,7 +9796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>199</v>
       </c>
@@ -9819,7 +9822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>201</v>
       </c>
@@ -9845,7 +9848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>203</v>
       </c>
@@ -9871,7 +9874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>205</v>
       </c>
@@ -9897,7 +9900,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>207</v>
       </c>
@@ -9923,7 +9926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>209</v>
       </c>
@@ -9946,7 +9949,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>211</v>
       </c>
@@ -9972,7 +9975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>213</v>
       </c>
@@ -9998,7 +10001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>215</v>
       </c>
@@ -10027,7 +10030,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>219</v>
       </c>
@@ -10053,7 +10056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>221</v>
       </c>
@@ -10079,7 +10082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>223</v>
       </c>
@@ -10105,7 +10108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>225</v>
       </c>
@@ -10131,7 +10134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>227</v>
       </c>
@@ -10157,7 +10160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>229</v>
       </c>
@@ -10183,7 +10186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>231</v>
       </c>
@@ -10209,7 +10212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>233</v>
       </c>
@@ -10235,7 +10238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>235</v>
       </c>
@@ -10261,7 +10264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>237</v>
       </c>
@@ -10287,7 +10290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>239</v>
       </c>
@@ -10313,7 +10316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>241</v>
       </c>
@@ -10339,7 +10342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>243</v>
       </c>
@@ -10365,7 +10368,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>245</v>
       </c>
@@ -10391,7 +10394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>247</v>
       </c>
@@ -10417,7 +10420,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>249</v>
       </c>
@@ -10443,7 +10446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>251</v>
       </c>
@@ -10469,7 +10472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>253</v>
       </c>
@@ -10495,7 +10498,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>255</v>
       </c>
@@ -10521,7 +10524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>255</v>
       </c>
@@ -10547,7 +10550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>258</v>
       </c>
@@ -10573,7 +10576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>260</v>
       </c>
@@ -10599,7 +10602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>262</v>
       </c>
@@ -10625,7 +10628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>264</v>
       </c>
@@ -10651,7 +10654,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>266</v>
       </c>
@@ -10677,7 +10680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>268</v>
       </c>
@@ -10703,7 +10706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>270</v>
       </c>
@@ -10729,7 +10732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>272</v>
       </c>
@@ -10755,7 +10758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>274</v>
       </c>
@@ -10781,7 +10784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>276</v>
       </c>
@@ -10807,7 +10810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>278</v>
       </c>
@@ -10833,7 +10836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>280</v>
       </c>
@@ -10859,7 +10862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>282</v>
       </c>
@@ -10885,7 +10888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>284</v>
       </c>
@@ -10911,7 +10914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>286</v>
       </c>
@@ -10937,7 +10940,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>288</v>
       </c>
@@ -10963,7 +10966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>290</v>
       </c>
@@ -10989,7 +10992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>290</v>
       </c>
@@ -11015,7 +11018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>293</v>
       </c>
@@ -11041,7 +11044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>295</v>
       </c>
@@ -11067,7 +11070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>297</v>
       </c>
@@ -11093,7 +11096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>299</v>
       </c>
@@ -11119,7 +11122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>301</v>
       </c>
@@ -11145,7 +11148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>303</v>
       </c>
@@ -11171,7 +11174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>305</v>
       </c>
@@ -11197,7 +11200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>307</v>
       </c>
@@ -11223,7 +11226,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>308</v>
       </c>
@@ -11249,7 +11252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>310</v>
       </c>
@@ -11275,7 +11278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>312</v>
       </c>
@@ -11301,7 +11304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>314</v>
       </c>
@@ -11327,7 +11330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>316</v>
       </c>
@@ -11353,7 +11356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>318</v>
       </c>
@@ -11379,7 +11382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>318</v>
       </c>
@@ -11405,7 +11408,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>321</v>
       </c>
@@ -11431,7 +11434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>323</v>
       </c>
@@ -11457,7 +11460,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>325</v>
       </c>
@@ -11483,7 +11486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>327</v>
       </c>
@@ -11509,7 +11512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>329</v>
       </c>
@@ -11535,7 +11538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>331</v>
       </c>
@@ -11561,7 +11564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>333</v>
       </c>
@@ -11587,7 +11590,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>335</v>
       </c>
@@ -11613,7 +11616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>337</v>
       </c>
@@ -11639,7 +11642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>339</v>
       </c>
@@ -11665,7 +11668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>341</v>
       </c>
@@ -11691,7 +11694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>343</v>
       </c>
@@ -11717,7 +11720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>345</v>
       </c>
@@ -11743,7 +11746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>347</v>
       </c>
@@ -11769,7 +11772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>347</v>
       </c>
@@ -11795,7 +11798,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>350</v>
       </c>
@@ -11821,7 +11824,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>352</v>
       </c>
@@ -11847,7 +11850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>354</v>
       </c>
@@ -11873,7 +11876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>356</v>
       </c>
@@ -11899,7 +11902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>358</v>
       </c>
@@ -11925,7 +11928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>358</v>
       </c>
@@ -11951,7 +11954,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>361</v>
       </c>
@@ -11977,7 +11980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>363</v>
       </c>
@@ -12003,7 +12006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>365</v>
       </c>
@@ -12029,7 +12032,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" t="s">
         <v>367</v>
@@ -12056,7 +12059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>369</v>
       </c>
@@ -12082,7 +12085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>371</v>
       </c>
@@ -12108,7 +12111,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>373</v>
       </c>
@@ -12134,7 +12137,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>375</v>
       </c>
@@ -12160,7 +12163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>377</v>
       </c>
@@ -12186,7 +12189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>379</v>
       </c>
@@ -12212,7 +12215,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>381</v>
       </c>
@@ -12238,7 +12241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>383</v>
       </c>
@@ -12264,7 +12267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>385</v>
       </c>
@@ -12290,7 +12293,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>387</v>
       </c>
@@ -12316,7 +12319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>389</v>
       </c>
@@ -12342,7 +12345,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>391</v>
       </c>
@@ -12368,7 +12371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>391</v>
       </c>
@@ -12394,7 +12397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>394</v>
       </c>
@@ -12420,7 +12423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>396</v>
       </c>
@@ -12446,7 +12449,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>396</v>
       </c>
@@ -12472,7 +12475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>396</v>
       </c>
@@ -12498,7 +12501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>400</v>
       </c>
@@ -12524,7 +12527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>402</v>
       </c>
@@ -12550,7 +12553,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>404</v>
       </c>
@@ -12576,7 +12579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>406</v>
       </c>
@@ -12602,7 +12605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>408</v>
       </c>
@@ -12628,7 +12631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>410</v>
       </c>
@@ -12654,7 +12657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>410</v>
       </c>
@@ -12680,7 +12683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>413</v>
       </c>
@@ -12706,7 +12709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>415</v>
       </c>
@@ -12732,7 +12735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>417</v>
       </c>
@@ -12758,7 +12761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>419</v>
       </c>
@@ -12784,7 +12787,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>421</v>
       </c>
@@ -12813,7 +12816,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>424</v>
       </c>
@@ -12839,7 +12842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>426</v>
       </c>
@@ -12865,7 +12868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>426</v>
       </c>
@@ -12891,7 +12894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>429</v>
       </c>
@@ -12917,7 +12920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>431</v>
       </c>
@@ -12943,7 +12946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>431</v>
       </c>
@@ -12969,7 +12972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>433</v>
       </c>
@@ -12995,7 +12998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>435</v>
       </c>
@@ -13021,7 +13024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>437</v>
       </c>
@@ -13047,7 +13050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>439</v>
       </c>
@@ -13073,7 +13076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
         <v>441</v>
       </c>
@@ -13099,7 +13102,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>443</v>
       </c>
@@ -13125,7 +13128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
         <v>445</v>
       </c>
@@ -13148,7 +13151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
         <v>447</v>
       </c>
@@ -13174,7 +13177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
         <v>450</v>
       </c>
@@ -13200,7 +13203,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
         <v>452</v>
       </c>
@@ -13223,7 +13226,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
         <v>454</v>
       </c>
@@ -13249,7 +13252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
         <v>456</v>
       </c>
@@ -13275,7 +13278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
         <v>458</v>
       </c>
@@ -13301,7 +13304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
         <v>460</v>
       </c>
@@ -13327,7 +13330,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
         <v>463</v>
       </c>
@@ -13353,7 +13356,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
         <v>465</v>
       </c>
@@ -13379,7 +13382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
         <v>467</v>
       </c>
@@ -13405,7 +13408,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
         <v>469</v>
       </c>
@@ -13431,7 +13434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
         <v>471</v>
       </c>
@@ -13457,7 +13460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
         <v>471</v>
       </c>
@@ -13483,7 +13486,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
         <v>474</v>
       </c>
@@ -13509,7 +13512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
         <v>476</v>
       </c>
@@ -13535,7 +13538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>476</v>
       </c>
@@ -13561,7 +13564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
         <v>476</v>
       </c>
@@ -13587,7 +13590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
         <v>480</v>
       </c>
@@ -13613,7 +13616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
         <v>482</v>
       </c>
@@ -13639,7 +13642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
         <v>484</v>
       </c>
@@ -13665,7 +13668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
         <v>486</v>
       </c>
@@ -13691,7 +13694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>488</v>
       </c>
@@ -13717,7 +13720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>490</v>
       </c>
@@ -13743,7 +13746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
         <v>491</v>
       </c>
@@ -13769,7 +13772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
         <v>493</v>
       </c>
@@ -13795,7 +13798,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
         <v>495</v>
       </c>
@@ -13821,7 +13824,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
         <v>497</v>
       </c>
@@ -13847,7 +13850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
         <v>497</v>
       </c>
@@ -13873,7 +13876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
         <v>500</v>
       </c>
@@ -13899,7 +13902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
         <v>502</v>
       </c>
@@ -13925,7 +13928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
         <v>504</v>
       </c>
@@ -13951,7 +13954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
         <v>506</v>
       </c>
@@ -13977,7 +13980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
         <v>508</v>
       </c>
@@ -14003,7 +14006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
         <v>510</v>
       </c>
@@ -14029,7 +14032,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
         <v>512</v>
       </c>
@@ -14055,7 +14058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
         <v>514</v>
       </c>
@@ -14081,7 +14084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
         <v>516</v>
       </c>
@@ -14107,7 +14110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
         <v>518</v>
       </c>
@@ -14133,7 +14136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
         <v>520</v>
       </c>
@@ -14159,7 +14162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
         <v>522</v>
       </c>
@@ -14185,7 +14188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
         <v>524</v>
       </c>
@@ -14211,7 +14214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
         <v>526</v>
       </c>
@@ -14237,7 +14240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
         <v>528</v>
       </c>
@@ -14263,7 +14266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
         <v>530</v>
       </c>
@@ -14289,7 +14292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
         <v>532</v>
       </c>
@@ -14315,7 +14318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
         <v>534</v>
       </c>
@@ -14341,7 +14344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
         <v>536</v>
       </c>
@@ -14367,7 +14370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
         <v>536</v>
       </c>
@@ -14393,7 +14396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
         <v>539</v>
       </c>
@@ -14419,7 +14422,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
         <v>541</v>
       </c>
@@ -14445,7 +14448,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
         <v>543</v>
       </c>
@@ -14471,7 +14474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
         <v>545</v>
       </c>
@@ -14497,7 +14500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
         <v>547</v>
       </c>
@@ -14523,7 +14526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
         <v>549</v>
       </c>
@@ -14549,7 +14552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
         <v>551</v>
       </c>
@@ -14575,7 +14578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
         <v>553</v>
       </c>
@@ -14601,7 +14604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
         <v>555</v>
       </c>
@@ -14627,7 +14630,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="276" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
         <v>557</v>
       </c>
@@ -14653,7 +14656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="277" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
         <v>557</v>
       </c>
@@ -14679,7 +14682,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="278" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
         <v>557</v>
       </c>
@@ -14705,7 +14708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
         <v>561</v>
       </c>
@@ -14731,7 +14734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="280" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
         <v>563</v>
       </c>
@@ -14757,7 +14760,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="281" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
         <v>565</v>
       </c>
@@ -14783,7 +14786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="282" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
         <v>567</v>
       </c>
@@ -14809,7 +14812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
         <v>570</v>
       </c>
@@ -14835,7 +14838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
         <v>572</v>
       </c>
@@ -14867,7 +14870,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="285" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
         <v>575</v>
       </c>
@@ -14893,7 +14896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="286" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
         <v>577</v>
       </c>
@@ -14919,7 +14922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="287" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
         <v>579</v>
       </c>
@@ -14945,7 +14948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
         <v>581</v>
       </c>
@@ -14971,7 +14974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
         <v>583</v>
       </c>
@@ -14997,7 +15000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
         <v>583</v>
       </c>
@@ -15023,7 +15026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
         <v>586</v>
       </c>
@@ -15049,7 +15052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
         <v>588</v>
       </c>
@@ -15075,7 +15078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
         <v>589</v>
       </c>
@@ -15101,7 +15104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
         <v>591</v>
       </c>
@@ -15127,7 +15130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
         <v>593</v>
       </c>
@@ -15153,7 +15156,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
         <v>595</v>
       </c>
@@ -15179,7 +15182,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
         <v>597</v>
       </c>
@@ -15205,7 +15208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
         <v>599</v>
       </c>
@@ -15231,7 +15234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
         <v>601</v>
       </c>
@@ -15257,7 +15260,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
         <v>603</v>
       </c>
@@ -15283,7 +15286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
         <v>605</v>
       </c>
@@ -15309,7 +15312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" t="s">
         <v>607</v>
@@ -15336,7 +15339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
         <v>609</v>
       </c>
@@ -15368,7 +15371,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
         <v>609</v>
       </c>
@@ -15394,7 +15397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
         <v>614</v>
       </c>
@@ -15420,7 +15423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
         <v>616</v>
       </c>
@@ -15446,7 +15449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
         <v>618</v>
       </c>
@@ -15472,7 +15475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="308" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
         <v>620</v>
       </c>
@@ -15498,7 +15501,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="309" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
         <v>620</v>
       </c>
@@ -15524,7 +15527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
         <v>623</v>
       </c>
@@ -15550,7 +15553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
         <v>625</v>
       </c>
@@ -15576,7 +15579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
         <v>625</v>
       </c>
@@ -15602,7 +15605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
         <v>628</v>
       </c>
@@ -15628,7 +15631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
         <v>630</v>
       </c>
@@ -15654,7 +15657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="315" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
         <v>632</v>
       </c>
@@ -15680,7 +15683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
         <v>634</v>
       </c>
@@ -15706,7 +15709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
         <v>636</v>
       </c>
@@ -15732,7 +15735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
         <v>638</v>
       </c>
@@ -15758,7 +15761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
         <v>640</v>
       </c>
@@ -15784,7 +15787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
         <v>642</v>
       </c>
@@ -15810,7 +15813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
         <v>642</v>
       </c>
@@ -15836,7 +15839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
         <v>645</v>
       </c>
@@ -15862,7 +15865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
         <v>647</v>
       </c>
@@ -15888,7 +15891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
         <v>649</v>
       </c>
@@ -15914,7 +15917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
         <v>651</v>
       </c>
@@ -15937,7 +15940,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="326" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
         <v>653</v>
       </c>
@@ -15963,7 +15966,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="327" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
         <v>654</v>
       </c>
@@ -15989,7 +15992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
         <v>656</v>
       </c>
@@ -16015,7 +16018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="329" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
         <v>658</v>
       </c>
@@ -16041,7 +16044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
         <v>660</v>
       </c>
@@ -16067,7 +16070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="331" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
         <v>661</v>
       </c>
@@ -16093,7 +16096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="332" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
         <v>663</v>
       </c>
@@ -16119,7 +16122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
         <v>665</v>
       </c>
@@ -16145,7 +16148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="334" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
         <v>667</v>
       </c>
@@ -16171,7 +16174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="335" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
         <v>669</v>
       </c>
@@ -16197,7 +16200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="336" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
         <v>671</v>
       </c>
@@ -16223,7 +16226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
         <v>673</v>
       </c>
@@ -16246,7 +16249,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
         <v>675</v>
       </c>
@@ -16272,7 +16275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
         <v>677</v>
       </c>
@@ -16295,7 +16298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
         <v>679</v>
       </c>
@@ -16318,7 +16321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
         <v>681</v>
       </c>
@@ -16344,7 +16347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
         <v>683</v>
       </c>
@@ -16370,7 +16373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" s="2"/>
       <c r="B343" t="s">
         <v>685</v>
@@ -16397,7 +16400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
         <v>685</v>
       </c>
@@ -16423,7 +16426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
         <v>685</v>
       </c>
@@ -16449,7 +16452,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
         <v>689</v>
       </c>
@@ -16475,7 +16478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
         <v>691</v>
       </c>
@@ -16501,7 +16504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
         <v>693</v>
       </c>
@@ -16527,7 +16530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
         <v>695</v>
       </c>
@@ -16553,7 +16556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
         <v>697</v>
       </c>
@@ -16579,7 +16582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
         <v>699</v>
       </c>
@@ -16605,7 +16608,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
         <v>701</v>
       </c>
@@ -16631,7 +16634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="353" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
         <v>703</v>
       </c>
@@ -16657,7 +16660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="354" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
         <v>705</v>
       </c>
@@ -16683,7 +16686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="355" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
         <v>707</v>
       </c>
@@ -16709,7 +16712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
         <v>709</v>
       </c>
@@ -16735,7 +16738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
         <v>711</v>
       </c>
@@ -16761,7 +16764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
         <v>713</v>
       </c>
@@ -16787,7 +16790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
         <v>713</v>
       </c>
@@ -16813,7 +16816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
         <v>713</v>
       </c>
@@ -16839,7 +16842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
         <v>717</v>
       </c>
@@ -16865,7 +16868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
         <v>719</v>
       </c>
@@ -16891,7 +16894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="363" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
         <v>721</v>
       </c>
@@ -16917,7 +16920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
         <v>723</v>
       </c>
@@ -16943,7 +16946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
         <v>725</v>
       </c>
@@ -16969,7 +16972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="366" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
         <v>727</v>
       </c>
@@ -16995,7 +16998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
         <v>729</v>
       </c>
@@ -17021,7 +17024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="368" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
         <v>731</v>
       </c>
@@ -17047,7 +17050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="369" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
         <v>733</v>
       </c>
@@ -17073,7 +17076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="370" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
         <v>735</v>
       </c>
@@ -17099,7 +17102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="371" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
         <v>735</v>
       </c>
@@ -17125,7 +17128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="372" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
         <v>736</v>
       </c>
@@ -17151,7 +17154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="373" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
         <v>738</v>
       </c>
@@ -17177,7 +17180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="374" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
         <v>740</v>
       </c>
@@ -17203,7 +17206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="375" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
         <v>742</v>
       </c>
@@ -17229,7 +17232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
         <v>744</v>
       </c>
@@ -17255,7 +17258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="377" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
         <v>746</v>
       </c>
@@ -17281,7 +17284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="378" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
         <v>748</v>
       </c>
@@ -17307,7 +17310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="379" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
         <v>750</v>
       </c>
@@ -17333,7 +17336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="380" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
         <v>752</v>
       </c>
@@ -17359,7 +17362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="381" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
         <v>754</v>
       </c>
@@ -17385,7 +17388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="382" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
         <v>756</v>
       </c>
@@ -17411,7 +17414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="383" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
         <v>756</v>
       </c>
@@ -17437,7 +17440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="384" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
         <v>759</v>
       </c>
@@ -17463,7 +17466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="385" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
         <v>761</v>
       </c>
@@ -17489,7 +17492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="386" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B386" t="s">
         <v>763</v>
       </c>
@@ -17515,7 +17518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="387" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
         <v>765</v>
       </c>
@@ -17541,7 +17544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="388" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
         <v>767</v>
       </c>
@@ -17567,7 +17570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="389" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B389" t="s">
         <v>769</v>
       </c>
@@ -17593,7 +17596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="390" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B390" t="s">
         <v>771</v>
       </c>
@@ -17619,7 +17622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="391" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B391" t="s">
         <v>773</v>
       </c>
@@ -17645,7 +17648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B392" t="s">
         <v>775</v>
       </c>
@@ -17671,7 +17674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="393" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B393" t="s">
         <v>777</v>
       </c>
@@ -17697,7 +17700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="394" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B394" t="s">
         <v>779</v>
       </c>
@@ -17723,7 +17726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="395" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B395" t="s">
         <v>781</v>
       </c>
@@ -17749,7 +17752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="396" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
         <v>783</v>
       </c>
@@ -17775,7 +17778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="397" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B397" t="s">
         <v>785</v>
       </c>
@@ -17801,7 +17804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="398" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B398" t="s">
         <v>787</v>
       </c>
@@ -17827,7 +17830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="399" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B399" t="s">
         <v>789</v>
       </c>
@@ -17853,7 +17856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="400" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B400" t="s">
         <v>791</v>
       </c>
@@ -17879,7 +17882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B401" t="s">
         <v>794</v>
       </c>
@@ -17905,7 +17908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B402" t="s">
         <v>796</v>
       </c>
@@ -17928,7 +17931,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="403" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B403" t="s">
         <v>798</v>
       </c>
@@ -17954,7 +17957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="404" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B404" t="s">
         <v>800</v>
       </c>
@@ -17977,7 +17980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="405" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
         <v>802</v>
       </c>
@@ -18000,7 +18003,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="406" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
         <v>804</v>
       </c>
@@ -18026,7 +18029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="407" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
         <v>806</v>
       </c>
@@ -18052,7 +18055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="408" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B408" t="s">
         <v>808</v>
       </c>
@@ -18078,7 +18081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="409" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B409" t="s">
         <v>810</v>
       </c>
@@ -18104,7 +18107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="410" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B410" t="s">
         <v>813</v>
       </c>
@@ -18130,7 +18133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="411" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B411" t="s">
         <v>815</v>
       </c>
@@ -18156,7 +18159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="412" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B412" t="s">
         <v>816</v>
       </c>
@@ -18182,7 +18185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="413" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B413" t="s">
         <v>818</v>
       </c>
@@ -18208,7 +18211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="414" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B414" t="s">
         <v>820</v>
       </c>
@@ -18234,7 +18237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="415" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
         <v>822</v>
       </c>
@@ -18260,7 +18263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B416" t="s">
         <v>824</v>
       </c>
@@ -18286,7 +18289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="417" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
         <v>826</v>
       </c>
@@ -18312,7 +18315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="418" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B418" t="s">
         <v>828</v>
       </c>
@@ -18335,7 +18338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="419" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B419" t="s">
         <v>831</v>
       </c>
@@ -18358,7 +18361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="420" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B420" t="s">
         <v>832</v>
       </c>
@@ -18381,7 +18384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="421" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B421" t="s">
         <v>834</v>
       </c>
@@ -18404,7 +18407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="422" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B422" t="s">
         <v>836</v>
       </c>
@@ -18427,7 +18430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="423" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B423" t="s">
         <v>838</v>
       </c>
@@ -18450,7 +18453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="424" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B424" t="s">
         <v>840</v>
       </c>
@@ -18473,7 +18476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="425" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B425" t="s">
         <v>842</v>
       </c>
@@ -18496,7 +18499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="426" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B426" t="s">
         <v>842</v>
       </c>
@@ -18522,7 +18525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B427" t="s">
         <v>846</v>
       </c>
@@ -18533,7 +18536,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="428" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B428" t="s">
         <v>847</v>
       </c>
@@ -18559,7 +18562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="429" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B429" t="s">
         <v>849</v>
       </c>
@@ -18582,7 +18585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="430" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B430" t="s">
         <v>851</v>
       </c>
@@ -18605,7 +18608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="431" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B431" t="s">
         <v>853</v>
       </c>
@@ -18628,7 +18631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="432" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B432" t="s">
         <v>855</v>
       </c>
@@ -18651,7 +18654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B433" t="s">
         <v>857</v>
       </c>
@@ -18674,7 +18677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="434" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B434" t="s">
         <v>859</v>
       </c>
@@ -18697,7 +18700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="435" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B435" t="s">
         <v>861</v>
       </c>
@@ -18708,7 +18711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B436" t="s">
         <v>862</v>
       </c>
@@ -18731,7 +18734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="437" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B437" t="s">
         <v>864</v>
       </c>
@@ -18754,7 +18757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="438" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B438" t="s">
         <v>865</v>
       </c>
@@ -18780,7 +18783,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="439" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B439" t="s">
         <v>868</v>
       </c>
@@ -18809,7 +18812,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="440" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
         <v>870</v>
       </c>
@@ -18832,7 +18835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="441" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B441" t="s">
         <v>872</v>
       </c>
@@ -18855,7 +18858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B442" t="s">
         <v>874</v>
       </c>
@@ -18878,7 +18881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="443" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B443" t="s">
         <v>876</v>
       </c>
@@ -18901,7 +18904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="444" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B444" t="s">
         <v>878</v>
       </c>
@@ -18924,7 +18927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="445" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B445" t="s">
         <v>880</v>
       </c>
@@ -18953,7 +18956,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="446" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B446" t="s">
         <v>883</v>
       </c>
@@ -18976,7 +18979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B447" t="s">
         <v>885</v>
       </c>
@@ -19002,7 +19005,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="448" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B448" t="s">
         <v>888</v>
       </c>
@@ -19025,7 +19028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="449" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B449" t="s">
         <v>890</v>
       </c>
@@ -19048,7 +19051,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="450" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B450" t="s">
         <v>892</v>
       </c>
@@ -19074,7 +19077,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="451" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B451" t="s">
         <v>894</v>
       </c>
@@ -19100,7 +19103,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="452" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B452" t="s">
         <v>887</v>
       </c>
@@ -19123,7 +19126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="453" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B453" t="s">
         <v>887</v>
       </c>
@@ -19137,7 +19140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="454" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B454" t="s">
         <v>887</v>
       </c>
@@ -19151,7 +19154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B455" t="s">
         <v>882</v>
       </c>
@@ -19174,7 +19177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B456" t="s">
         <v>898</v>
       </c>
@@ -19188,7 +19191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="457" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B457" t="s">
         <v>899</v>
       </c>
@@ -19211,7 +19214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="458" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B458" t="s">
         <v>901</v>
       </c>
@@ -19234,7 +19237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="459" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B459" t="s">
         <v>903</v>
       </c>
@@ -19260,7 +19263,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="460" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B460" t="s">
         <v>906</v>
       </c>
@@ -19286,7 +19289,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="461" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B461" t="s">
         <v>909</v>
       </c>
@@ -19312,7 +19315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="462" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B462" t="s">
         <v>911</v>
       </c>
@@ -19338,7 +19341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="463" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B463" t="s">
         <v>913</v>
       </c>
@@ -19364,7 +19367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="464" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B464" t="s">
         <v>913</v>
       </c>
@@ -19387,7 +19390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="465" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B465" t="s">
         <v>916</v>
       </c>
@@ -19413,7 +19416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="466" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B466" t="s">
         <v>918</v>
       </c>
@@ -19439,7 +19442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="467" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B467" t="s">
         <v>920</v>
       </c>
@@ -19465,7 +19468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="468" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B468" t="s">
         <v>922</v>
       </c>
@@ -19491,7 +19494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="469" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B469" t="s">
         <v>924</v>
       </c>
@@ -19517,7 +19520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="470" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B470" t="s">
         <v>926</v>
       </c>
@@ -19543,7 +19546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="471" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B471" t="s">
         <v>928</v>
       </c>
@@ -19569,7 +19572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="472" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B472" t="s">
         <v>930</v>
       </c>
@@ -19595,7 +19598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="473" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B473" t="s">
         <v>932</v>
       </c>
@@ -19621,7 +19624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="474" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B474" t="s">
         <v>934</v>
       </c>
@@ -19647,7 +19650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="475" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B475" t="s">
         <v>936</v>
       </c>
@@ -19673,7 +19676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="476" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B476" t="s">
         <v>938</v>
       </c>
@@ -19702,7 +19705,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="477" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B477" t="s">
         <v>941</v>
       </c>
@@ -19731,7 +19734,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="478" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B478" t="s">
         <v>944</v>
       </c>
@@ -19754,7 +19757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="479" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B479" t="s">
         <v>946</v>
       </c>
@@ -19780,7 +19783,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="480" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B480" t="s">
         <v>948</v>
       </c>
@@ -19791,7 +19794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="481" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B481" t="s">
         <v>949</v>
       </c>
@@ -19817,7 +19820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="482" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B482" t="s">
         <v>951</v>
       </c>
@@ -19831,7 +19834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="483" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B483" t="s">
         <v>952</v>
       </c>
@@ -19857,7 +19860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="484" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B484" t="s">
         <v>954</v>
       </c>
@@ -19883,7 +19886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="485" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B485" t="s">
         <v>956</v>
       </c>
@@ -19909,7 +19912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="486" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B486" t="s">
         <v>958</v>
       </c>
@@ -19923,7 +19926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="487" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B487" t="s">
         <v>959</v>
       </c>
@@ -19934,7 +19937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="488" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B488" t="s">
         <v>960</v>
       </c>
@@ -19945,7 +19948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="489" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B489" t="s">
         <v>961</v>
       </c>
@@ -19971,7 +19974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="490" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B490" t="s">
         <v>963</v>
       </c>
@@ -19997,7 +20000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="491" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B491" t="s">
         <v>965</v>
       </c>
@@ -20023,7 +20026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="492" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B492" t="s">
         <v>967</v>
       </c>
@@ -20049,7 +20052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="493" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B493" t="s">
         <v>969</v>
       </c>
@@ -20075,7 +20078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="494" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B494" t="s">
         <v>971</v>
       </c>
@@ -20101,7 +20104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="495" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B495" t="s">
         <v>973</v>
       </c>
@@ -20127,7 +20130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="496" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B496" t="s">
         <v>975</v>
       </c>
@@ -20153,7 +20156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B497" t="s">
         <v>977</v>
       </c>
@@ -20179,7 +20182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B498" t="s">
         <v>979</v>
       </c>
@@ -20205,7 +20208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B499" t="s">
         <v>981</v>
       </c>
@@ -20231,7 +20234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B500" t="s">
         <v>983</v>
       </c>
@@ -20257,7 +20260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A501" s="2"/>
       <c r="B501" t="s">
         <v>985</v>
@@ -20284,7 +20287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B502" t="s">
         <v>987</v>
       </c>
@@ -20310,7 +20313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B503" t="s">
         <v>989</v>
       </c>
@@ -20336,7 +20339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B504" t="s">
         <v>991</v>
       </c>
@@ -20362,7 +20365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B505" t="s">
         <v>993</v>
       </c>
@@ -20388,7 +20391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B506" t="s">
         <v>995</v>
       </c>
@@ -20414,7 +20417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B507" t="s">
         <v>997</v>
       </c>
@@ -20440,7 +20443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B508" t="s">
         <v>999</v>
       </c>
@@ -20466,7 +20469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B509" t="s">
         <v>1001</v>
       </c>
@@ -20492,7 +20495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B510" t="s">
         <v>1003</v>
       </c>
@@ -20518,7 +20521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B511" t="s">
         <v>1005</v>
       </c>
@@ -20544,7 +20547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B512" t="s">
         <v>1007</v>
       </c>
@@ -20570,7 +20573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="513" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B513" t="s">
         <v>1009</v>
       </c>
@@ -20596,7 +20599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="514" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B514" t="s">
         <v>1011</v>
       </c>
@@ -20622,7 +20625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="515" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B515" t="s">
         <v>1013</v>
       </c>
@@ -20648,7 +20651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="516" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B516" t="s">
         <v>1015</v>
       </c>
@@ -20674,7 +20677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="517" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B517" t="s">
         <v>1017</v>
       </c>
@@ -20700,7 +20703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="518" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B518" t="s">
         <v>1019</v>
       </c>
@@ -20726,7 +20729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="519" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B519" t="s">
         <v>1021</v>
       </c>
@@ -20752,7 +20755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="520" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B520" t="s">
         <v>1023</v>
       </c>
@@ -20778,7 +20781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="521" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B521" t="s">
         <v>1025</v>
       </c>
@@ -20804,7 +20807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="522" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B522" t="s">
         <v>1027</v>
       </c>
@@ -20830,7 +20833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="523" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B523" t="s">
         <v>1029</v>
       </c>
@@ -20856,7 +20859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="524" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B524" t="s">
         <v>1031</v>
       </c>
@@ -20882,7 +20885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="525" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B525" t="s">
         <v>1033</v>
       </c>
@@ -20908,7 +20911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="526" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B526" t="s">
         <v>1035</v>
       </c>
@@ -20934,7 +20937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="527" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B527" t="s">
         <v>1037</v>
       </c>
@@ -20963,7 +20966,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="528" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B528" t="s">
         <v>1037</v>
       </c>
@@ -20974,7 +20977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="529" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B529" t="s">
         <v>1039</v>
       </c>
@@ -21000,7 +21003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="530" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B530" t="s">
         <v>1042</v>
       </c>
@@ -21026,7 +21029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="531" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B531" t="s">
         <v>1044</v>
       </c>
@@ -21052,7 +21055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="532" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B532" t="s">
         <v>1047</v>
       </c>
@@ -21078,7 +21081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="533" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B533" t="s">
         <v>1049</v>
       </c>
@@ -21110,7 +21113,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="534" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B534" t="s">
         <v>1053</v>
       </c>
@@ -21139,7 +21142,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="535" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B535" t="s">
         <v>1056</v>
       </c>
@@ -21165,7 +21168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="536" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B536" t="s">
         <v>1058</v>
       </c>
@@ -21191,7 +21194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="537" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B537" t="s">
         <v>1060</v>
       </c>
@@ -21217,7 +21220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="538" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B538" t="s">
         <v>1062</v>
       </c>
@@ -21243,7 +21246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="539" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B539" t="s">
         <v>943</v>
       </c>
@@ -21269,7 +21272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="540" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B540" t="s">
         <v>1064</v>
       </c>
@@ -21295,7 +21298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="541" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B541" t="s">
         <v>1066</v>
       </c>
@@ -21318,7 +21321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="542" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B542" t="s">
         <v>1068</v>
       </c>
@@ -21341,7 +21344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="543" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B543" t="s">
         <v>1070</v>
       </c>
@@ -21367,7 +21370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="544" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B544" t="s">
         <v>1072</v>
       </c>
@@ -21393,7 +21396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="545" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B545" t="s">
         <v>1073</v>
       </c>
@@ -21407,7 +21410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B546" t="s">
         <v>1074</v>
       </c>
@@ -21421,7 +21424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B547" t="s">
         <v>1075</v>
       </c>
@@ -21444,7 +21447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B548" t="s">
         <v>1078</v>
       </c>
@@ -21470,7 +21473,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="549" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B549" t="s">
         <v>1081</v>
       </c>
@@ -21493,7 +21496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="550" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B550" t="s">
         <v>1082</v>
       </c>
@@ -21516,7 +21519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="551" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B551" t="s">
         <v>1084</v>
       </c>
@@ -21539,7 +21542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="552" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B552" t="s">
         <v>1086</v>
       </c>
@@ -21565,7 +21568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="553" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B553" t="s">
         <v>1088</v>
       </c>
@@ -21588,7 +21591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B554" t="s">
         <v>940</v>
       </c>
@@ -21614,7 +21617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="555" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B555" t="s">
         <v>1055</v>
       </c>
@@ -21640,7 +21643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="556" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B556" t="s">
         <v>1092</v>
       </c>
@@ -21663,7 +21666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="557" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B557" t="s">
         <v>1095</v>
       </c>
@@ -21680,7 +21683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="558" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B558" t="s">
         <v>1098</v>
       </c>
@@ -21697,7 +21700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="559" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B559" t="s">
         <v>1100</v>
       </c>
@@ -21717,7 +21720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="560" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B560" t="s">
         <v>1103</v>
       </c>
@@ -21737,7 +21740,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="561" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B561" t="s">
         <v>1105</v>
       </c>
@@ -21760,7 +21763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="562" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B562" t="s">
         <v>1107</v>
       </c>
@@ -21786,7 +21789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="563" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B563" t="s">
         <v>1110</v>
       </c>
@@ -21806,7 +21809,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="564" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B564" t="s">
         <v>1112</v>
       </c>
@@ -21832,7 +21835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="565" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B565" t="s">
         <v>1115</v>
       </c>
@@ -21858,7 +21861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="566" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B566" t="s">
         <v>1118</v>
       </c>
@@ -21884,7 +21887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="567" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B567" t="s">
         <v>1120</v>
       </c>
@@ -21910,7 +21913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="568" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B568" t="s">
         <v>1122</v>
       </c>
@@ -21939,7 +21942,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="569" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B569" t="s">
         <v>1126</v>
       </c>
@@ -21968,7 +21971,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="570" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B570" t="s">
         <v>1128</v>
       </c>
@@ -21994,7 +21997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="571" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B571" t="s">
         <v>1125</v>
       </c>
@@ -22020,7 +22023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="572" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B572" t="s">
         <v>1131</v>
       </c>
@@ -22040,7 +22043,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="573" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B573" t="s">
         <v>1133</v>
       </c>
@@ -22060,7 +22063,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="574" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B574" t="s">
         <v>1135</v>
       </c>
@@ -22080,7 +22083,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="575" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B575" t="s">
         <v>1137</v>
       </c>
@@ -22100,7 +22103,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="576" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B576" t="s">
         <v>1139</v>
       </c>
@@ -22120,7 +22123,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="577" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B577" t="s">
         <v>1141</v>
       </c>
@@ -22140,7 +22143,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="578" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B578" t="s">
         <v>1143</v>
       </c>
@@ -22160,7 +22163,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="579" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B579" t="s">
         <v>1145</v>
       </c>
@@ -22189,7 +22192,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="580" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B580" t="s">
         <v>1148</v>
       </c>
@@ -22215,7 +22218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B581" t="s">
         <v>1151</v>
       </c>
@@ -22241,7 +22244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="582" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B582" t="s">
         <v>1153</v>
       </c>
@@ -22267,7 +22270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B583" t="s">
         <v>1155</v>
       </c>
@@ -22293,7 +22296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B584" t="s">
         <v>1157</v>
       </c>
@@ -22319,7 +22322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="585" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B585" t="s">
         <v>1159</v>
       </c>
@@ -22345,7 +22348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="586" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B586" t="s">
         <v>1161</v>
       </c>
@@ -22371,7 +22374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="587" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B587" t="s">
         <v>1163</v>
       </c>
@@ -22397,7 +22400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="588" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B588" t="s">
         <v>1165</v>
       </c>
@@ -22423,7 +22426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B589" t="s">
         <v>1168</v>
       </c>
@@ -22449,7 +22452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="590" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B590" t="s">
         <v>1170</v>
       </c>
@@ -22475,7 +22478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B591" t="s">
         <v>1173</v>
       </c>
@@ -22501,7 +22504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B592" t="s">
         <v>1176</v>
       </c>
@@ -22524,7 +22527,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="593" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B593" t="s">
         <v>1178</v>
       </c>
@@ -22547,7 +22550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="594" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B594" t="s">
         <v>1180</v>
       </c>
@@ -22573,7 +22576,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="595" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B595" t="s">
         <v>1183</v>
       </c>
@@ -22596,7 +22599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="596" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B596" t="s">
         <v>1185</v>
       </c>
@@ -22622,7 +22625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="597" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B597" t="s">
         <v>1188</v>
       </c>
@@ -22648,7 +22651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B598" t="s">
         <v>1190</v>
       </c>
@@ -22668,7 +22671,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="599" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B599" t="s">
         <v>1192</v>
       </c>
@@ -22688,7 +22691,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="600" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B600" t="s">
         <v>1194</v>
       </c>
@@ -22711,7 +22714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B601" t="s">
         <v>1197</v>
       </c>
@@ -22737,7 +22740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B602" t="s">
         <v>1199</v>
       </c>
@@ -22763,7 +22766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="603" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B603" t="s">
         <v>1202</v>
       </c>
@@ -22795,7 +22798,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="604" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B604" t="s">
         <v>1204</v>
       </c>
@@ -22821,7 +22824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="605" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B605" t="s">
         <v>1207</v>
       </c>
@@ -22853,7 +22856,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="606" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B606" t="s">
         <v>1209</v>
       </c>
@@ -22879,7 +22882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="607" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B607" t="s">
         <v>1211</v>
       </c>
@@ -22902,7 +22905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="608" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B608" t="s">
         <v>1213</v>
       </c>
@@ -22928,7 +22931,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="609" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B609" t="s">
         <v>1216</v>
       </c>
@@ -22954,7 +22957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="610" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B610" t="s">
         <v>1218</v>
       </c>
@@ -22983,7 +22986,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="611" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B611" t="s">
         <v>1215</v>
       </c>
@@ -23006,7 +23009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="612" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B612" t="s">
         <v>1220</v>
       </c>
@@ -23032,7 +23035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="613" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B613" t="s">
         <v>1221</v>
       </c>
@@ -23058,7 +23061,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="614" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B614" t="s">
         <v>1224</v>
       </c>
@@ -23084,7 +23087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="615" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B615" t="s">
         <v>1223</v>
       </c>
@@ -23107,7 +23110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="616" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B616" t="s">
         <v>1223</v>
       </c>
@@ -23130,7 +23133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="617" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B617" t="s">
         <v>1229</v>
       </c>
@@ -23162,7 +23165,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="618" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B618" t="s">
         <v>1231</v>
       </c>
@@ -23185,7 +23188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="619" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B619" t="s">
         <v>1234</v>
       </c>
@@ -23217,7 +23220,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="620" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B620" t="s">
         <v>1237</v>
       </c>
@@ -23243,7 +23246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="621" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B621" t="s">
         <v>1241</v>
       </c>
@@ -23275,7 +23278,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="622" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B622" t="s">
         <v>1245</v>
       </c>
@@ -23301,7 +23304,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="623" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B623" t="s">
         <v>1248</v>
       </c>
@@ -23327,7 +23330,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="624" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B624" t="s">
         <v>1247</v>
       </c>
@@ -23350,7 +23353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="625" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B625" t="s">
         <v>1251</v>
       </c>
@@ -23376,7 +23379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="626" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B626" t="s">
         <v>1254</v>
       </c>
@@ -23405,7 +23408,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="627" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B627" t="s">
         <v>1257</v>
       </c>
@@ -23428,7 +23431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="628" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B628" t="s">
         <v>1260</v>
       </c>
@@ -23448,7 +23451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B629" t="s">
         <v>1262</v>
       </c>
@@ -23471,7 +23474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="630" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B630" t="s">
         <v>1265</v>
       </c>
@@ -23497,7 +23500,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="631" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B631" t="s">
         <v>1267</v>
       </c>
@@ -23523,7 +23526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="632" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B632" t="s">
         <v>1268</v>
       </c>
@@ -23549,7 +23552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="633" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B633" t="s">
         <v>1270</v>
       </c>
@@ -23575,7 +23578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="634" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B634" t="s">
         <v>1272</v>
       </c>
@@ -23601,7 +23604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="635" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B635" t="s">
         <v>1274</v>
       </c>
@@ -23627,7 +23630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="636" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B636" t="s">
         <v>1276</v>
       </c>
@@ -23653,7 +23656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="637" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B637" t="s">
         <v>1278</v>
       </c>
@@ -23679,7 +23682,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="638" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B638" t="s">
         <v>1280</v>
       </c>
@@ -23708,7 +23711,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="639" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B639" t="s">
         <v>1283</v>
       </c>
@@ -23737,7 +23740,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="640" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B640" t="s">
         <v>1286</v>
       </c>
@@ -23763,7 +23766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="641" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B641" t="s">
         <v>1288</v>
       </c>
@@ -23789,7 +23792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="642" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B642" t="s">
         <v>1291</v>
       </c>
@@ -23815,7 +23818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="643" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B643" t="s">
         <v>1292</v>
       </c>
@@ -23838,7 +23841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="644" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B644" t="s">
         <v>1294</v>
       </c>
@@ -23864,7 +23867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="645" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B645" t="s">
         <v>1296</v>
       </c>
@@ -23890,7 +23893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="646" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B646" t="s">
         <v>1298</v>
       </c>
@@ -23916,7 +23919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="647" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B647" t="s">
         <v>1300</v>
       </c>
@@ -23945,7 +23948,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="648" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B648" t="s">
         <v>1301</v>
       </c>
@@ -23962,7 +23965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="649" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B649" t="s">
         <v>1304</v>
       </c>
@@ -23988,7 +23991,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="650" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B650" t="s">
         <v>1309</v>
       </c>
@@ -24014,7 +24017,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="651" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B651" t="s">
         <v>1311</v>
       </c>
@@ -24037,7 +24040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="652" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B652" t="s">
         <v>1313</v>
       </c>
@@ -24060,7 +24063,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="653" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B653" t="s">
         <v>1315</v>
       </c>
@@ -24086,7 +24089,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="654" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B654" t="s">
         <v>1318</v>
       </c>
@@ -24112,7 +24115,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="655" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B655" t="s">
         <v>1322</v>
       </c>
@@ -24141,7 +24144,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="656" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B656" t="s">
         <v>1327</v>
       </c>
@@ -24170,7 +24173,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="657" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B657" t="s">
         <v>1330</v>
       </c>
@@ -24199,7 +24202,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="658" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B658" t="s">
         <v>1332</v>
       </c>
@@ -24222,7 +24225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="659" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B659" t="s">
         <v>1334</v>
       </c>
@@ -24242,7 +24245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="660" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B660" t="s">
         <v>1335</v>
       </c>
@@ -24265,7 +24268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="661" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B661" t="s">
         <v>1337</v>
       </c>
@@ -24288,7 +24291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="662" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B662" t="s">
         <v>1339</v>
       </c>
@@ -24314,7 +24317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="663" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B663" t="s">
         <v>1341</v>
       </c>
@@ -24340,7 +24343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="664" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B664" t="s">
         <v>1344</v>
       </c>
@@ -24360,7 +24363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="665" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B665" t="s">
         <v>1346</v>
       </c>
@@ -24383,7 +24386,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="666" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B666" t="s">
         <v>1348</v>
       </c>
@@ -24406,7 +24409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="667" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B667" t="s">
         <v>1351</v>
       </c>
@@ -24429,7 +24432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="668" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B668" t="s">
         <v>1353</v>
       </c>
@@ -24455,7 +24458,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="669" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B669" t="s">
         <v>1355</v>
       </c>
@@ -24481,7 +24484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="670" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B670" t="s">
         <v>1356</v>
       </c>
@@ -24507,7 +24510,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="671" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B671" t="s">
         <v>1359</v>
       </c>
@@ -24527,7 +24530,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="672" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B672" t="s">
         <v>1359</v>
       </c>
@@ -24550,7 +24553,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B673" t="s">
         <v>1359</v>
       </c>
@@ -24570,7 +24573,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B674" t="s">
         <v>1363</v>
       </c>
@@ -24593,7 +24596,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B675" t="s">
         <v>1358</v>
       </c>
@@ -24616,7 +24619,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B676" t="s">
         <v>1366</v>
       </c>
@@ -24639,7 +24642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B677" t="s">
         <v>1368</v>
       </c>
@@ -24665,7 +24668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B678" t="s">
         <v>1369</v>
       </c>
@@ -24691,7 +24694,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B679" t="s">
         <v>1371</v>
       </c>
@@ -24720,7 +24723,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A680" s="2"/>
       <c r="B680" t="s">
         <v>1374</v>
@@ -24744,7 +24747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B681" t="s">
         <v>1377</v>
       </c>
@@ -24767,7 +24770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B682" t="s">
         <v>1379</v>
       </c>
@@ -24790,7 +24793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B683" t="s">
         <v>1381</v>
       </c>
@@ -24816,7 +24819,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B684" t="s">
         <v>1383</v>
       </c>
@@ -24839,7 +24842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B685" t="s">
         <v>1385</v>
       </c>
@@ -24865,7 +24868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B686" t="s">
         <v>1388</v>
       </c>
@@ -24888,7 +24891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B687" t="s">
         <v>1390</v>
       </c>
@@ -24911,7 +24914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B688" t="s">
         <v>1392</v>
       </c>
@@ -24934,7 +24937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="689" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B689" t="s">
         <v>1394</v>
       </c>
@@ -24957,7 +24960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="690" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B690" t="s">
         <v>1396</v>
       </c>
@@ -24980,7 +24983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="691" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B691" t="s">
         <v>1398</v>
       </c>
@@ -25006,7 +25009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="692" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B692" t="s">
         <v>1400</v>
       </c>
@@ -25029,7 +25032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="693" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B693" t="s">
         <v>1402</v>
       </c>
@@ -25052,7 +25055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="694" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B694" t="s">
         <v>1404</v>
       </c>
@@ -25075,7 +25078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="695" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B695" t="s">
         <v>1406</v>
       </c>
@@ -25098,7 +25101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="696" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B696" t="s">
         <v>1408</v>
       </c>
@@ -25121,7 +25124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="697" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B697" t="s">
         <v>1410</v>
       </c>
@@ -25147,7 +25150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="698" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B698" t="s">
         <v>1413</v>
       </c>
@@ -25170,7 +25173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="699" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B699" t="s">
         <v>1415</v>
       </c>
@@ -25193,7 +25196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="700" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B700" t="s">
         <v>1417</v>
       </c>
@@ -25216,7 +25219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="701" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B701" t="s">
         <v>1419</v>
       </c>
@@ -25245,7 +25248,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="702" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B702" t="s">
         <v>1422</v>
       </c>
@@ -25268,7 +25271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="703" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B703" t="s">
         <v>1424</v>
       </c>
@@ -25291,7 +25294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="704" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B704" t="s">
         <v>1426</v>
       </c>
@@ -25314,7 +25317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="705" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B705" t="s">
         <v>1428</v>
       </c>
@@ -25337,7 +25340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="706" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B706" t="s">
         <v>1430</v>
       </c>
@@ -25363,7 +25366,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="707" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B707" t="s">
         <v>1433</v>
       </c>
@@ -25386,7 +25389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="708" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B708" t="s">
         <v>1435</v>
       </c>
@@ -25409,7 +25412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="709" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B709" t="s">
         <v>1437</v>
       </c>
@@ -25432,7 +25435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="710" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B710" t="s">
         <v>1439</v>
       </c>
@@ -25455,7 +25458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="711" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B711" t="s">
         <v>1441</v>
       </c>
@@ -25481,7 +25484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="712" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B712" t="s">
         <v>1443</v>
       </c>
@@ -25504,7 +25507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="713" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B713" t="s">
         <v>1445</v>
       </c>
@@ -25527,7 +25530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="714" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B714" t="s">
         <v>1447</v>
       </c>
@@ -25550,7 +25553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="715" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B715" t="s">
         <v>1449</v>
       </c>
@@ -25573,7 +25576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="716" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B716" t="s">
         <v>1451</v>
       </c>
@@ -25596,7 +25599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="717" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B717" t="s">
         <v>1453</v>
       </c>
@@ -25619,7 +25622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="718" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B718" t="s">
         <v>1455</v>
       </c>
@@ -25642,7 +25645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="719" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B719" t="s">
         <v>1457</v>
       </c>
@@ -25665,7 +25668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="720" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B720" t="s">
         <v>1459</v>
       </c>
@@ -25688,7 +25691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="721" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B721" t="s">
         <v>1461</v>
       </c>
@@ -25711,7 +25714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="722" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B722" t="s">
         <v>1463</v>
       </c>
@@ -25734,7 +25737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="723" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B723" t="s">
         <v>1465</v>
       </c>
@@ -25757,7 +25760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="724" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B724" t="s">
         <v>1467</v>
       </c>
@@ -25780,7 +25783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="725" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B725" t="s">
         <v>1469</v>
       </c>
@@ -25806,7 +25809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="726" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B726" t="s">
         <v>1471</v>
       </c>
@@ -25832,7 +25835,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="727" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B727" t="s">
         <v>1473</v>
       </c>
@@ -25858,7 +25861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="728" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B728" t="s">
         <v>1476</v>
       </c>
@@ -25884,7 +25887,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="729" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B729" t="s">
         <v>1478</v>
       </c>
@@ -25910,7 +25913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="730" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B730" t="s">
         <v>1480</v>
       </c>
@@ -25936,7 +25939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="731" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B731" t="s">
         <v>1483</v>
       </c>
@@ -25962,7 +25965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="732" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B732" t="s">
         <v>1485</v>
       </c>
@@ -25988,7 +25991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="733" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B733" t="s">
         <v>1487</v>
       </c>
@@ -26014,7 +26017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="734" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B734" t="s">
         <v>1489</v>
       </c>
@@ -26040,7 +26043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="735" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B735" t="s">
         <v>1490</v>
       </c>
@@ -26063,7 +26066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="736" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B736" t="s">
         <v>1491</v>
       </c>
@@ -26089,7 +26092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="737" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B737" t="s">
         <v>1493</v>
       </c>
@@ -26115,7 +26118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="738" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B738" t="s">
         <v>1495</v>
       </c>
@@ -26141,7 +26144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="739" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B739" t="s">
         <v>1497</v>
       </c>
@@ -26167,7 +26170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="740" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B740" t="s">
         <v>1499</v>
       </c>
@@ -26193,7 +26196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="741" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B741" t="s">
         <v>1501</v>
       </c>
@@ -26219,7 +26222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="742" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B742" t="s">
         <v>1503</v>
       </c>
@@ -26245,7 +26248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="743" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B743" t="s">
         <v>1505</v>
       </c>
@@ -26268,7 +26271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="744" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B744" t="s">
         <v>1507</v>
       </c>
@@ -26294,7 +26297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="745" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B745" t="s">
         <v>1510</v>
       </c>
@@ -26320,7 +26323,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="746" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B746" t="s">
         <v>1513</v>
       </c>
@@ -26343,7 +26346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="747" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B747" t="s">
         <v>1515</v>
       </c>
@@ -26369,7 +26372,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="748" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B748" t="s">
         <v>1518</v>
       </c>
@@ -26395,7 +26398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="749" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B749" t="s">
         <v>1520</v>
       </c>
@@ -26421,7 +26424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="750" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B750" t="s">
         <v>1522</v>
       </c>
@@ -26447,7 +26450,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="751" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B751" t="s">
         <v>1525</v>
       </c>
@@ -26470,7 +26473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="752" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B752" t="s">
         <v>1527</v>
       </c>
@@ -26496,7 +26499,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="753" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B753" t="s">
         <v>1529</v>
       </c>
@@ -26519,7 +26522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="754" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B754" t="s">
         <v>1530</v>
       </c>
@@ -26542,7 +26545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="755" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B755" t="s">
         <v>1532</v>
       </c>
@@ -26568,7 +26571,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="756" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B756" t="s">
         <v>1535</v>
       </c>
@@ -26594,7 +26597,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="757" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B757" t="s">
         <v>1537</v>
       </c>
@@ -26617,7 +26620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="758" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B758" t="s">
         <v>1539</v>
       </c>
@@ -26643,7 +26646,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="759" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B759" t="s">
         <v>1541</v>
       </c>
@@ -26666,7 +26669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="760" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B760" t="s">
         <v>1543</v>
       </c>
@@ -26689,7 +26692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="761" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B761" t="s">
         <v>1545</v>
       </c>
@@ -26715,7 +26718,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="762" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B762" t="s">
         <v>1547</v>
       </c>
@@ -26738,7 +26741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="763" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B763" t="s">
         <v>1549</v>
       </c>
@@ -26761,7 +26764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="764" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B764" t="s">
         <v>1551</v>
       </c>
@@ -26787,7 +26790,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="765" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B765" t="s">
         <v>1553</v>
       </c>
@@ -26810,7 +26813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="766" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B766" t="s">
         <v>1554</v>
       </c>
@@ -26836,7 +26839,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="767" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B767" t="s">
         <v>1556</v>
       </c>
@@ -26859,7 +26862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="768" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B768" t="s">
         <v>1558</v>
       </c>
@@ -26885,7 +26888,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="769" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B769" t="s">
         <v>1560</v>
       </c>
@@ -26908,7 +26911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="770" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B770" t="s">
         <v>1562</v>
       </c>
@@ -26934,7 +26937,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="771" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B771" t="s">
         <v>1564</v>
       </c>
@@ -26957,7 +26960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="772" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B772" t="s">
         <v>1566</v>
       </c>
@@ -26983,7 +26986,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="773" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B773" t="s">
         <v>1568</v>
       </c>
@@ -27006,7 +27009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="774" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B774" t="s">
         <v>1570</v>
       </c>
@@ -27032,7 +27035,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="775" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B775" t="s">
         <v>1572</v>
       </c>
@@ -27055,7 +27058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="776" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B776" t="s">
         <v>1574</v>
       </c>
@@ -27081,7 +27084,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="777" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B777" t="s">
         <v>1576</v>
       </c>
@@ -27104,7 +27107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="778" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B778" t="s">
         <v>1578</v>
       </c>
@@ -27127,7 +27130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="779" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B779" t="s">
         <v>1580</v>
       </c>
@@ -27150,7 +27153,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="780" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B780" t="s">
         <v>1582</v>
       </c>
@@ -27176,7 +27179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="781" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B781" t="s">
         <v>1585</v>
       </c>
@@ -27199,7 +27202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="782" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B782" t="s">
         <v>1587</v>
       </c>
@@ -27222,7 +27225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="783" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B783" t="s">
         <v>1589</v>
       </c>
@@ -27248,7 +27251,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="784" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B784" t="s">
         <v>1592</v>
       </c>
@@ -27274,7 +27277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="785" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B785" t="s">
         <v>1595</v>
       </c>
@@ -27300,7 +27303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="786" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B786" t="s">
         <v>1597</v>
       </c>
@@ -27326,7 +27329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="787" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B787" t="s">
         <v>1600</v>
       </c>
@@ -27352,7 +27355,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="788" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B788" t="s">
         <v>1602</v>
       </c>
@@ -27375,7 +27378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="789" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B789" t="s">
         <v>1604</v>
       </c>
@@ -27401,7 +27404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="790" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B790" t="s">
         <v>1606</v>
       </c>
@@ -27424,7 +27427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="791" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B791" t="s">
         <v>1608</v>
       </c>
@@ -27447,7 +27450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="792" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B792" t="s">
         <v>1610</v>
       </c>
@@ -27470,7 +27473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="793" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B793" t="s">
         <v>1612</v>
       </c>
@@ -27493,7 +27496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="794" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B794" t="s">
         <v>1614</v>
       </c>
@@ -27519,7 +27522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="795" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B795" t="s">
         <v>1617</v>
       </c>
@@ -27545,7 +27548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="796" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B796" t="s">
         <v>1619</v>
       </c>
@@ -27571,7 +27574,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="797" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B797" t="s">
         <v>1621</v>
       </c>
@@ -27594,7 +27597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="798" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B798" t="s">
         <v>1621</v>
       </c>
@@ -27617,7 +27620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="799" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B799" t="s">
         <v>1623</v>
       </c>
@@ -27640,7 +27643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="800" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B800" t="s">
         <v>1625</v>
       </c>
@@ -27663,7 +27666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="801" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B801" t="s">
         <v>1627</v>
       </c>
@@ -27686,7 +27689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="802" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B802" t="s">
         <v>1629</v>
       </c>
@@ -27709,7 +27712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="803" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B803" t="s">
         <v>1631</v>
       </c>
@@ -27732,7 +27735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="804" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B804" t="s">
         <v>1633</v>
       </c>
@@ -27755,7 +27758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="805" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B805" t="s">
         <v>1635</v>
       </c>
@@ -27778,7 +27781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="806" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B806" t="s">
         <v>1637</v>
       </c>
@@ -27801,7 +27804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="807" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B807" t="s">
         <v>1639</v>
       </c>
@@ -27827,7 +27830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="808" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B808" t="s">
         <v>1642</v>
       </c>
@@ -27850,7 +27853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="809" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B809" t="s">
         <v>1644</v>
       </c>
@@ -27873,7 +27876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="810" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B810" t="s">
         <v>1646</v>
       </c>
@@ -27896,7 +27899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="811" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B811" t="s">
         <v>1648</v>
       </c>
@@ -27919,7 +27922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="812" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B812" t="s">
         <v>1650</v>
       </c>
@@ -27942,7 +27945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="813" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B813" t="s">
         <v>1652</v>
       </c>
@@ -27965,7 +27968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="814" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B814" t="s">
         <v>1654</v>
       </c>
@@ -27991,7 +27994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="815" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B815" t="s">
         <v>1656</v>
       </c>
@@ -28014,7 +28017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="816" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B816" t="s">
         <v>1658</v>
       </c>
@@ -28037,7 +28040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="817" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B817" t="s">
         <v>1660</v>
       </c>
@@ -28060,7 +28063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="818" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B818" t="s">
         <v>1662</v>
       </c>
@@ -28083,7 +28086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="819" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B819" t="s">
         <v>1664</v>
       </c>
@@ -28106,7 +28109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="820" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B820" t="s">
         <v>1666</v>
       </c>
@@ -28129,7 +28132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="821" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B821" t="s">
         <v>1668</v>
       </c>
@@ -28152,7 +28155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="822" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B822" t="s">
         <v>1670</v>
       </c>
@@ -28175,7 +28178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="823" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B823" t="s">
         <v>1672</v>
       </c>
@@ -28198,7 +28201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="824" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B824" t="s">
         <v>1674</v>
       </c>
@@ -28221,7 +28224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="825" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B825" t="s">
         <v>1676</v>
       </c>
@@ -28244,7 +28247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="826" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B826" t="s">
         <v>1678</v>
       </c>
@@ -28270,7 +28273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="827" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B827" t="s">
         <v>1680</v>
       </c>
@@ -28293,7 +28296,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="828" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B828" t="s">
         <v>1682</v>
       </c>
@@ -28316,7 +28319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="829" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B829" t="s">
         <v>1684</v>
       </c>
@@ -28339,7 +28342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="830" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B830" t="s">
         <v>1686</v>
       </c>
@@ -28365,7 +28368,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="831" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B831" t="s">
         <v>1688</v>
       </c>
@@ -28388,7 +28391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="832" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B832" t="s">
         <v>1689</v>
       </c>
@@ -28411,7 +28414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="833" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B833" t="s">
         <v>1691</v>
       </c>
@@ -28434,7 +28437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="834" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B834" t="s">
         <v>1693</v>
       </c>
@@ -28457,7 +28460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="835" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B835" t="s">
         <v>1695</v>
       </c>
@@ -28480,7 +28483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="836" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B836" t="s">
         <v>1697</v>
       </c>
@@ -28503,7 +28506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="837" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B837" t="s">
         <v>1699</v>
       </c>
@@ -28526,7 +28529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="838" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B838" t="s">
         <v>1701</v>
       </c>
@@ -28549,7 +28552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="839" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B839" t="s">
         <v>1703</v>
       </c>
@@ -28572,7 +28575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="840" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B840" t="s">
         <v>1705</v>
       </c>
@@ -28595,7 +28598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="841" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B841" t="s">
         <v>1707</v>
       </c>
@@ -28618,7 +28621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="842" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B842" t="s">
         <v>1709</v>
       </c>
@@ -28644,7 +28647,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="843" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B843" t="s">
         <v>1711</v>
       </c>
@@ -28670,7 +28673,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="844" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B844" t="s">
         <v>1714</v>
       </c>
@@ -28693,7 +28696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="845" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B845" t="s">
         <v>1716</v>
       </c>
@@ -28716,7 +28719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="846" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B846" t="s">
         <v>1718</v>
       </c>
@@ -28742,7 +28745,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="847" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B847" t="s">
         <v>1720</v>
       </c>
@@ -28765,7 +28768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="848" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B848" t="s">
         <v>1722</v>
       </c>
@@ -28788,7 +28791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="849" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B849" t="s">
         <v>1724</v>
       </c>
@@ -28811,7 +28814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="850" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B850" t="s">
         <v>1726</v>
       </c>
@@ -28834,7 +28837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="851" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B851" t="s">
         <v>1728</v>
       </c>
@@ -28860,7 +28863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="852" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B852" t="s">
         <v>1730</v>
       </c>
@@ -28886,7 +28889,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="853" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B853" t="s">
         <v>1732</v>
       </c>
@@ -28909,7 +28912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="854" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B854" t="s">
         <v>1734</v>
       </c>
@@ -28935,7 +28938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="855" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B855" t="s">
         <v>1736</v>
       </c>
@@ -28958,7 +28961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="856" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B856" t="s">
         <v>1738</v>
       </c>
@@ -28981,7 +28984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="857" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B857" t="s">
         <v>1740</v>
       </c>
@@ -29004,7 +29007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="858" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B858" t="s">
         <v>1742</v>
       </c>
@@ -29027,7 +29030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="859" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B859" t="s">
         <v>1744</v>
       </c>
@@ -29050,7 +29053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="860" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B860" t="s">
         <v>1746</v>
       </c>
@@ -29073,7 +29076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="861" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B861" t="s">
         <v>1748</v>
       </c>
@@ -29099,7 +29102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="862" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B862" t="s">
         <v>1750</v>
       </c>
@@ -29122,7 +29125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="863" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B863" t="s">
         <v>1752</v>
       </c>
@@ -29145,7 +29148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="864" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B864" t="s">
         <v>1754</v>
       </c>
@@ -29168,7 +29171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="865" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B865" t="s">
         <v>1756</v>
       </c>
@@ -29191,7 +29194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="866" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B866" t="s">
         <v>1758</v>
       </c>
@@ -29214,7 +29217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="867" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B867" t="s">
         <v>1760</v>
       </c>
@@ -29240,7 +29243,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="868" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B868" t="s">
         <v>1763</v>
       </c>
@@ -29266,7 +29269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="869" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B869" t="s">
         <v>1765</v>
       </c>
@@ -29289,7 +29292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="870" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B870" t="s">
         <v>1767</v>
       </c>
@@ -29312,7 +29315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="871" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B871" t="s">
         <v>1769</v>
       </c>
@@ -29335,7 +29338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="872" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B872" t="s">
         <v>1771</v>
       </c>
@@ -29361,7 +29364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="873" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B873" t="s">
         <v>1773</v>
       </c>
@@ -29384,7 +29387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="874" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B874" t="s">
         <v>1775</v>
       </c>
@@ -29407,7 +29410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="875" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B875" t="s">
         <v>1777</v>
       </c>
@@ -29430,7 +29433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="876" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B876" t="s">
         <v>1779</v>
       </c>
@@ -29453,7 +29456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="877" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B877" t="s">
         <v>1781</v>
       </c>
@@ -29476,7 +29479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="878" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B878" t="s">
         <v>1783</v>
       </c>
@@ -29502,7 +29505,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="879" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B879" t="s">
         <v>1786</v>
       </c>
@@ -29531,7 +29534,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="880" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B880" t="s">
         <v>1788</v>
       </c>
@@ -29557,7 +29560,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="881" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B881" t="s">
         <v>1790</v>
       </c>
@@ -29583,7 +29586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="882" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B882" t="s">
         <v>1792</v>
       </c>
@@ -29606,7 +29609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="883" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B883" t="s">
         <v>1794</v>
       </c>
@@ -29629,7 +29632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="884" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B884" t="s">
         <v>1796</v>
       </c>
@@ -29655,7 +29658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="885" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B885" t="s">
         <v>1798</v>
       </c>
@@ -29681,7 +29684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="886" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B886" t="s">
         <v>1800</v>
       </c>
@@ -29707,7 +29710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="887" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B887" t="s">
         <v>1802</v>
       </c>
@@ -29733,7 +29736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="888" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B888" t="s">
         <v>1804</v>
       </c>
@@ -29756,7 +29759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="889" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B889" t="s">
         <v>1806</v>
       </c>
@@ -29782,7 +29785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="890" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B890" t="s">
         <v>1808</v>
       </c>
@@ -29805,7 +29808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="891" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B891" t="s">
         <v>1810</v>
       </c>
@@ -29831,7 +29834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="892" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B892" t="s">
         <v>1812</v>
       </c>
@@ -29857,7 +29860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="893" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B893" t="s">
         <v>1814</v>
       </c>
@@ -29880,7 +29883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="894" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B894" t="s">
         <v>1816</v>
       </c>
@@ -29906,7 +29909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="895" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B895" t="s">
         <v>1818</v>
       </c>
@@ -29929,7 +29932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="896" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B896" t="s">
         <v>1820</v>
       </c>
@@ -29955,7 +29958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="897" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B897" t="s">
         <v>1822</v>
       </c>
@@ -29978,7 +29981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="898" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B898" t="s">
         <v>1824</v>
       </c>
@@ -30004,7 +30007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="899" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B899" t="s">
         <v>1826</v>
       </c>
@@ -30030,7 +30033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="900" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B900" t="s">
         <v>1828</v>
       </c>
@@ -30056,7 +30059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="901" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B901" t="s">
         <v>1830</v>
       </c>
@@ -30082,7 +30085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="902" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B902" t="s">
         <v>1832</v>
       </c>
@@ -30108,7 +30111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="903" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B903" t="s">
         <v>1834</v>
       </c>
@@ -30134,7 +30137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="904" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B904" t="s">
         <v>1836</v>
       </c>
@@ -30160,7 +30163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="905" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B905" t="s">
         <v>1836</v>
       </c>
@@ -30186,7 +30189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="906" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B906" t="s">
         <v>1838</v>
       </c>
@@ -30212,7 +30215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="907" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B907" t="s">
         <v>1840</v>
       </c>
@@ -30238,7 +30241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="908" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B908" t="s">
         <v>1842</v>
       </c>
@@ -30264,7 +30267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="909" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B909" t="s">
         <v>1844</v>
       </c>
@@ -30290,7 +30293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="910" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B910" t="s">
         <v>1846</v>
       </c>
@@ -30316,7 +30319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="911" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B911" t="s">
         <v>1848</v>
       </c>
@@ -30342,7 +30345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="912" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B912" t="s">
         <v>1850</v>
       </c>
@@ -30368,7 +30371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="913" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B913" t="s">
         <v>1852</v>
       </c>
@@ -30394,7 +30397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="914" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B914" t="s">
         <v>1853</v>
       </c>
@@ -30420,7 +30423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="915" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B915" t="s">
         <v>1855</v>
       </c>
@@ -30446,7 +30449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="916" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B916" t="s">
         <v>1857</v>
       </c>
@@ -30469,7 +30472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="917" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B917" t="s">
         <v>1859</v>
       </c>
@@ -30492,7 +30495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="918" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B918" t="s">
         <v>1861</v>
       </c>
@@ -30518,7 +30521,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="919" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B919" t="s">
         <v>1863</v>
       </c>
@@ -30541,7 +30544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="920" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B920" t="s">
         <v>1864</v>
       </c>
@@ -30564,7 +30567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="921" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B921" t="s">
         <v>1866</v>
       </c>
@@ -30590,7 +30593,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="922" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B922" t="s">
         <v>1869</v>
       </c>
@@ -30616,7 +30619,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="923" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B923" t="s">
         <v>1872</v>
       </c>
@@ -30636,7 +30639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="924" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B924" t="s">
         <v>1874</v>
       </c>
@@ -30662,7 +30665,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="925" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B925" t="s">
         <v>1877</v>
       </c>
@@ -30685,7 +30688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="926" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B926" t="s">
         <v>1879</v>
       </c>
@@ -30711,7 +30714,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="927" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B927" t="s">
         <v>1882</v>
       </c>
@@ -30737,7 +30740,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="928" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B928" t="s">
         <v>1882</v>
       </c>
@@ -30766,7 +30769,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="929" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B929" t="s">
         <v>1884</v>
       </c>
@@ -30792,7 +30795,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="930" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B930" t="s">
         <v>1889</v>
       </c>
@@ -30821,7 +30824,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="931" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B931" t="s">
         <v>1891</v>
       </c>
@@ -30847,7 +30850,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="932" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B932" t="s">
         <v>1308</v>
       </c>
@@ -30867,7 +30870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="933" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B933" t="s">
         <v>1895</v>
       </c>
@@ -30893,7 +30896,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="934" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B934" t="s">
         <v>1897</v>
       </c>
@@ -30916,7 +30919,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="935" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B935" t="s">
         <v>1901</v>
       </c>
@@ -30939,7 +30942,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="936" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B936" t="s">
         <v>1903</v>
       </c>
@@ -30965,7 +30968,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="937" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B937" t="s">
         <v>1905</v>
       </c>
@@ -30985,7 +30988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="938" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B938" t="s">
         <v>1907</v>
       </c>
@@ -31008,7 +31011,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="939" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B939" t="s">
         <v>1910</v>
       </c>
@@ -31031,7 +31034,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="940" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B940" t="s">
         <v>1913</v>
       </c>
@@ -31057,7 +31060,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="941" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B941" t="s">
         <v>1916</v>
       </c>
@@ -31083,7 +31086,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="942" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B942" t="s">
         <v>1919</v>
       </c>
@@ -31106,7 +31109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="943" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B943" t="s">
         <v>1921</v>
       </c>
@@ -31132,7 +31135,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="944" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B944" t="s">
         <v>1923</v>
       </c>
@@ -31161,7 +31164,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="945" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B945" t="s">
         <v>1925</v>
       </c>
@@ -31184,7 +31187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="946" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B946" t="s">
         <v>1928</v>
       </c>
@@ -31213,7 +31216,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="947" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B947" t="s">
         <v>1930</v>
       </c>
@@ -31236,7 +31239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="948" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B948" t="s">
         <v>1932</v>
       </c>
@@ -31262,7 +31265,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="949" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B949" t="s">
         <v>1935</v>
       </c>
@@ -31288,7 +31291,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="950" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B950" t="s">
         <v>1938</v>
       </c>
@@ -31314,7 +31317,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="951" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B951" t="s">
         <v>1941</v>
       </c>
@@ -31340,7 +31343,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="952" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B952" t="s">
         <v>1944</v>
       </c>
@@ -31366,7 +31369,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="953" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B953" t="s">
         <v>1947</v>
       </c>
@@ -31389,7 +31392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="954" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B954" t="s">
         <v>1949</v>
       </c>
@@ -31412,7 +31415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="955" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B955" t="s">
         <v>1951</v>
       </c>
@@ -31435,7 +31438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="956" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B956" t="s">
         <v>1953</v>
       </c>
@@ -31458,7 +31461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="957" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B957" t="s">
         <v>1955</v>
       </c>
@@ -31478,7 +31481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="958" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B958" t="s">
         <v>1957</v>
       </c>
@@ -31498,7 +31501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="959" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B959" t="s">
         <v>1959</v>
       </c>
@@ -31524,7 +31527,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="960" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B960" t="s">
         <v>1962</v>
       </c>
@@ -31550,7 +31553,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="961" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B961" t="s">
         <v>1964</v>
       </c>
@@ -31576,7 +31579,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="962" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B962" t="s">
         <v>1966</v>
       </c>
@@ -31602,7 +31605,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="963" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B963" t="s">
         <v>1968</v>
       </c>
@@ -31628,7 +31631,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="964" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B964" t="s">
         <v>1970</v>
       </c>
@@ -31648,7 +31651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="965" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="965" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B965" t="s">
         <v>1972</v>
       </c>
@@ -31674,7 +31677,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="966" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="966" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B966" t="s">
         <v>1975</v>
       </c>
@@ -31700,7 +31703,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="967" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="967" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B967" t="s">
         <v>1978</v>
       </c>
@@ -31723,7 +31726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="968" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="968" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B968" t="s">
         <v>1980</v>
       </c>
@@ -31752,7 +31755,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="969" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="969" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B969" t="s">
         <v>1984</v>
       </c>
@@ -31778,7 +31781,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="970" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="970" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B970" t="s">
         <v>1986</v>
       </c>
@@ -31798,7 +31801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="971" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="971" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B971" t="s">
         <v>1988</v>
       </c>
@@ -31821,7 +31824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="972" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="972" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B972" t="s">
         <v>1990</v>
       </c>
@@ -31844,7 +31847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="973" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="973" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B973" t="s">
         <v>1992</v>
       </c>
@@ -31864,7 +31867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="974" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="974" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B974" t="s">
         <v>1994</v>
       </c>
@@ -31887,7 +31890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="975" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="975" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B975" t="s">
         <v>1996</v>
       </c>
@@ -31913,7 +31916,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="976" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="976" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B976" t="s">
         <v>1998</v>
       </c>
@@ -31933,7 +31936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="977" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="977" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B977" t="s">
         <v>2000</v>
       </c>
@@ -31959,7 +31962,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="978" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="978" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B978" t="s">
         <v>2002</v>
       </c>
@@ -31982,7 +31985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="979" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="979" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B979" t="s">
         <v>2004</v>
       </c>
@@ -32005,7 +32008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="980" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="980" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B980" t="s">
         <v>2006</v>
       </c>
@@ -32028,7 +32031,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="981" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="981" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B981" t="s">
         <v>2008</v>
       </c>
@@ -32051,7 +32054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="982" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="982" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B982" t="s">
         <v>2009</v>
       </c>
@@ -32074,7 +32077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="983" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="983" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B983" t="s">
         <v>2011</v>
       </c>
@@ -32100,7 +32103,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="984" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="984" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B984" t="s">
         <v>2013</v>
       </c>
@@ -32126,7 +32129,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="985" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="985" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B985" t="s">
         <v>2015</v>
       </c>
@@ -32152,7 +32155,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="986" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="986" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B986" t="s">
         <v>2018</v>
       </c>
@@ -32175,7 +32178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="987" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="987" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B987" t="s">
         <v>2020</v>
       </c>
@@ -32201,7 +32204,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="988" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="988" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B988" t="s">
         <v>2022</v>
       </c>
@@ -32224,7 +32227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="989" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="989" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B989" t="s">
         <v>2024</v>
       </c>
@@ -32250,7 +32253,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="990" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="990" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B990" t="s">
         <v>2027</v>
       </c>
@@ -32276,7 +32279,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="991" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="991" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B991" t="s">
         <v>2029</v>
       </c>
@@ -32299,7 +32302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="992" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="992" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B992" t="s">
         <v>2031</v>
       </c>
@@ -32322,7 +32325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="993" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="993" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B993" t="s">
         <v>2033</v>
       </c>
@@ -32345,7 +32348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="994" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="994" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B994" t="s">
         <v>2035</v>
       </c>
@@ -32371,7 +32374,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="995" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="995" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B995" t="s">
         <v>2037</v>
       </c>
@@ -32394,7 +32397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="996" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="996" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B996" t="s">
         <v>2039</v>
       </c>
@@ -32420,7 +32423,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="997" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="997" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B997" t="s">
         <v>2041</v>
       </c>
@@ -32446,7 +32449,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="998" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="998" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B998" t="s">
         <v>2043</v>
       </c>
@@ -32469,7 +32472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="999" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="999" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B999" t="s">
         <v>2045</v>
       </c>
@@ -32495,7 +32498,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="1000" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1000" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1000" t="s">
         <v>2047</v>
       </c>
@@ -32518,7 +32521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1001" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1001" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1001" t="s">
         <v>2049</v>
       </c>
@@ -32541,7 +32544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1002" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1002" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1002" t="s">
         <v>2051</v>
       </c>
@@ -32564,7 +32567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1003" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1003" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1003" t="s">
         <v>1182</v>
       </c>
@@ -32590,7 +32593,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="1004" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1004" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1004" t="s">
         <v>2055</v>
       </c>
@@ -32613,7 +32616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1005" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1005" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1005" t="s">
         <v>2057</v>
       </c>
@@ -32636,7 +32639,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="1006" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1006" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1006" t="s">
         <v>2060</v>
       </c>
@@ -32662,7 +32665,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="1007" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1007" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1007" t="s">
         <v>2062</v>
       </c>
@@ -32685,7 +32688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1008" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1008" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1008" t="s">
         <v>2064</v>
       </c>
@@ -32711,7 +32714,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="1009" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1009" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1009" t="s">
         <v>2066</v>
       </c>
@@ -32737,7 +32740,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="1010" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1010" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1010" t="s">
         <v>2068</v>
       </c>
@@ -32757,7 +32760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1011" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1011" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1011" t="s">
         <v>2070</v>
       </c>
@@ -32777,7 +32780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1012" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1012" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1012" t="s">
         <v>2072</v>
       </c>
@@ -32800,7 +32803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1013" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1013" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1013" t="s">
         <v>2074</v>
       </c>
@@ -32823,7 +32826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1014" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1014" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1014" t="s">
         <v>2076</v>
       </c>
@@ -32846,7 +32849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1015" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1015" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1015" t="s">
         <v>2078</v>
       </c>
@@ -32869,7 +32872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1016" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1016" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1016" t="s">
         <v>2080</v>
       </c>
@@ -32892,7 +32895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1017" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1017" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1017" t="s">
         <v>2082</v>
       </c>
@@ -32915,7 +32918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1018" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1018" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1018" t="s">
         <v>2084</v>
       </c>
@@ -32935,7 +32938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1019" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1019" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1019" t="s">
         <v>2086</v>
       </c>
@@ -32958,7 +32961,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="1020" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1020" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1020" t="s">
         <v>2089</v>
       </c>
@@ -32981,7 +32984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1021" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1021" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1021" t="s">
         <v>2091</v>
       </c>
@@ -33007,7 +33010,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="1022" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1022" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1022" t="s">
         <v>2093</v>
       </c>
@@ -33027,7 +33030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1023" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1023" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1023" t="s">
         <v>2095</v>
       </c>
@@ -33050,7 +33053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1024" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1024" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1024" t="s">
         <v>2097</v>
       </c>
@@ -33076,7 +33079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1025" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1025" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1025" t="s">
         <v>2100</v>
       </c>
@@ -33102,7 +33105,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="1026" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1026" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1026" t="s">
         <v>2103</v>
       </c>
@@ -33128,7 +33131,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="1027" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1027" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1027" t="s">
         <v>2105</v>
       </c>
@@ -33151,7 +33154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1028" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1028" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1028" t="s">
         <v>2107</v>
       </c>
@@ -33177,7 +33180,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="1029" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1029" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1029" t="s">
         <v>1321</v>
       </c>
@@ -33203,7 +33206,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="1030" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1030" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1030" t="s">
         <v>2110</v>
       </c>
@@ -33223,7 +33226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1031" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1031" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1031" t="s">
         <v>2112</v>
       </c>
@@ -33246,7 +33249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1032" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1032" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1032" t="s">
         <v>2114</v>
       </c>
@@ -33269,7 +33272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1033" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1033" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1033" t="s">
         <v>2116</v>
       </c>
@@ -33289,7 +33292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1034" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1034" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1034" t="s">
         <v>2118</v>
       </c>
@@ -33315,7 +33318,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="1035" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1035" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1035" t="s">
         <v>2121</v>
       </c>
@@ -33335,7 +33338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1036" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1036" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1036" t="s">
         <v>2123</v>
       </c>
@@ -33361,7 +33364,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="1037" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1037" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1037" t="s">
         <v>2125</v>
       </c>
@@ -33384,7 +33387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1038" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1038" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1038" t="s">
         <v>2127</v>
       </c>
@@ -33407,7 +33410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1039" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1039" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1039" t="s">
         <v>2129</v>
       </c>
@@ -33430,7 +33433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1040" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1040" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1040" t="s">
         <v>2131</v>
       </c>
@@ -33453,7 +33456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1041" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1041" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1041" t="s">
         <v>2133</v>
       </c>
@@ -33476,7 +33479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1042" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1042" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1042" t="s">
         <v>2135</v>
       </c>
@@ -33499,7 +33502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1043" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1043" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1043" t="s">
         <v>2137</v>
       </c>
@@ -33522,7 +33525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1044" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1044" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1044" t="s">
         <v>2139</v>
       </c>
@@ -33542,7 +33545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1045" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1045" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1045" t="s">
         <v>2141</v>
       </c>
@@ -33565,7 +33568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1046" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1046" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1046" t="s">
         <v>2143</v>
       </c>
@@ -33588,7 +33591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1047" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1047" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1047" t="s">
         <v>2145</v>
       </c>
@@ -33611,7 +33614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1048" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1048" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1048" t="s">
         <v>2147</v>
       </c>
@@ -33634,7 +33637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1049" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1049" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1049" t="s">
         <v>2147</v>
       </c>
@@ -33657,7 +33660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1050" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1050" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1050" t="s">
         <v>2147</v>
       </c>
@@ -33680,7 +33683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1051" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1051" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1051" t="s">
         <v>2150</v>
       </c>
@@ -33706,7 +33709,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="1052" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1052" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1052" t="s">
         <v>2152</v>
       </c>
@@ -33729,7 +33732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1053" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1053" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1053" t="s">
         <v>2154</v>
       </c>
@@ -33758,7 +33761,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1054" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1054" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1054" t="s">
         <v>2156</v>
       </c>
@@ -33784,7 +33787,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="1055" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1055" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1055" t="s">
         <v>2158</v>
       </c>
@@ -33810,7 +33813,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="1056" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1056" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1056" t="s">
         <v>2160</v>
       </c>
@@ -33839,7 +33842,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="1057" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1057" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1057" t="s">
         <v>1982</v>
       </c>
@@ -33865,7 +33868,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="1058" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1058" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1058" t="s">
         <v>2165</v>
       </c>
@@ -33891,7 +33894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1059" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1059" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1059" t="s">
         <v>2167</v>
       </c>
@@ -33920,7 +33923,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="1060" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1060" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1060" t="s">
         <v>2170</v>
       </c>
@@ -33943,7 +33946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1061" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1061" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1061" t="s">
         <v>2172</v>
       </c>
@@ -33969,7 +33972,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="1062" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1062" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1062" t="s">
         <v>2175</v>
       </c>
@@ -33995,7 +33998,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="1063" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1063" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1063" t="s">
         <v>2178</v>
       </c>
@@ -34015,7 +34018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1064" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1064" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1064" t="s">
         <v>2181</v>
       </c>
@@ -34041,7 +34044,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="1065" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1065" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1065" t="s">
         <v>2184</v>
       </c>
@@ -34064,7 +34067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1066" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1066" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1066" t="s">
         <v>2187</v>
       </c>
@@ -34090,7 +34093,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="1067" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1067" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1067" t="s">
         <v>2189</v>
       </c>
@@ -34113,7 +34116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1068" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1068" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1068" t="s">
         <v>2191</v>
       </c>
@@ -34139,7 +34142,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="1069" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1069" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1069" t="s">
         <v>2194</v>
       </c>
@@ -34165,7 +34168,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="1070" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1070" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1070" t="s">
         <v>2196</v>
       </c>
@@ -34191,7 +34194,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="1071" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1071" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1071" t="s">
         <v>2198</v>
       </c>
@@ -34211,6 +34214,17 @@
         <v>2.0049999999999999</v>
       </c>
       <c r="I1071" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1072" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B1072" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I1072" t="s">
         <v>14</v>
       </c>
     </row>

--- a/TCKT.xlsx
+++ b/TCKT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nghingo/Documents/GitHub/tcvn-text-recogine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AFDAAC-8F0F-164B-BA15-E559F0FEE0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BA5A0A-6491-AB4F-AB8B-01344E6D5CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="500" windowWidth="20500" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5226" uniqueCount="2201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5229" uniqueCount="2202">
   <si>
     <t>Mã số</t>
   </si>
@@ -4507,9 +4507,6 @@
     <t>Thép cacbon kết cấu chất lượng tốt - Mác thép - Yêu cầu kỹ thuật.</t>
   </si>
   <si>
-    <t>TCVN 1876-76</t>
-  </si>
-  <si>
     <t>Tiêu chuẩn bu lông đầu sau cạnh (thô) - Kích thước</t>
   </si>
   <si>
@@ -6623,6 +6620,12 @@
   </si>
   <si>
     <t>QCVN QTĐ-5 : 2009 BCT</t>
+  </si>
+  <si>
+    <t>TCVN 1876:76</t>
+  </si>
+  <si>
+    <t>TCVN 9262:1:2012</t>
   </si>
 </sst>
 </file>
@@ -7465,10 +7468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1072"/>
+  <dimension ref="A1:K1073"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1063" workbookViewId="0">
-      <selection activeCell="D1073" sqref="D1073"/>
+      <selection activeCell="D1071" sqref="D1071"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26120,10 +26123,10 @@
     </row>
     <row r="738" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B738" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C738" t="s">
         <v>1495</v>
-      </c>
-      <c r="C738" t="s">
-        <v>1496</v>
       </c>
       <c r="D738" t="s">
         <v>1324</v>
@@ -26146,10 +26149,10 @@
     </row>
     <row r="739" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B739" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C739" t="s">
         <v>1497</v>
-      </c>
-      <c r="C739" t="s">
-        <v>1498</v>
       </c>
       <c r="D739" t="s">
         <v>1324</v>
@@ -26172,10 +26175,10 @@
     </row>
     <row r="740" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B740" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C740" t="s">
         <v>1499</v>
-      </c>
-      <c r="C740" t="s">
-        <v>1500</v>
       </c>
       <c r="D740" t="s">
         <v>1324</v>
@@ -26198,10 +26201,10 @@
     </row>
     <row r="741" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B741" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C741" t="s">
         <v>1501</v>
-      </c>
-      <c r="C741" t="s">
-        <v>1502</v>
       </c>
       <c r="D741" t="s">
         <v>1324</v>
@@ -26224,10 +26227,10 @@
     </row>
     <row r="742" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B742" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C742" t="s">
         <v>1503</v>
-      </c>
-      <c r="C742" t="s">
-        <v>1504</v>
       </c>
       <c r="D742" t="s">
         <v>1324</v>
@@ -26250,10 +26253,10 @@
     </row>
     <row r="743" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B743" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C743" t="s">
         <v>1505</v>
-      </c>
-      <c r="C743" t="s">
-        <v>1506</v>
       </c>
       <c r="D743" t="s">
         <v>1324</v>
@@ -26273,16 +26276,16 @@
     </row>
     <row r="744" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B744" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C744" t="s">
         <v>1507</v>
       </c>
-      <c r="C744" t="s">
+      <c r="D744" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E744" t="s">
         <v>1508</v>
-      </c>
-      <c r="D744" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E744" t="s">
-        <v>1509</v>
       </c>
       <c r="F744" s="1">
         <v>28126</v>
@@ -26299,10 +26302,10 @@
     </row>
     <row r="745" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B745" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C745" t="s">
         <v>1510</v>
-      </c>
-      <c r="C745" t="s">
-        <v>1511</v>
       </c>
       <c r="D745" t="s">
         <v>1324</v>
@@ -26320,15 +26323,15 @@
         <v>29</v>
       </c>
       <c r="K745" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="746" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B746" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C746" t="s">
         <v>1513</v>
-      </c>
-      <c r="C746" t="s">
-        <v>1514</v>
       </c>
       <c r="D746" t="s">
         <v>1324</v>
@@ -26348,16 +26351,16 @@
     </row>
     <row r="747" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B747" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C747" t="s">
         <v>1515</v>
       </c>
-      <c r="C747" t="s">
+      <c r="D747" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E747" t="s">
         <v>1516</v>
-      </c>
-      <c r="D747" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E747" t="s">
-        <v>1517</v>
       </c>
       <c r="F747" s="1">
         <v>28690</v>
@@ -26374,16 +26377,16 @@
     </row>
     <row r="748" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B748" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C748" t="s">
         <v>1518</v>
       </c>
-      <c r="C748" t="s">
-        <v>1519</v>
-      </c>
       <c r="D748" t="s">
         <v>1324</v>
       </c>
       <c r="E748" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F748" s="1">
         <v>28690</v>
@@ -26400,16 +26403,16 @@
     </row>
     <row r="749" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B749" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C749" t="s">
         <v>1520</v>
       </c>
-      <c r="C749" t="s">
-        <v>1521</v>
-      </c>
       <c r="D749" t="s">
         <v>1324</v>
       </c>
       <c r="E749" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F749" s="1">
         <v>28690</v>
@@ -26426,10 +26429,10 @@
     </row>
     <row r="750" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B750" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C750" t="s">
         <v>1522</v>
-      </c>
-      <c r="C750" t="s">
-        <v>1523</v>
       </c>
       <c r="D750" t="s">
         <v>1324</v>
@@ -26447,15 +26450,15 @@
         <v>14</v>
       </c>
       <c r="K750" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="751" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B751" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C751" t="s">
         <v>1525</v>
-      </c>
-      <c r="C751" t="s">
-        <v>1526</v>
       </c>
       <c r="D751" t="s">
         <v>1324</v>
@@ -26475,10 +26478,10 @@
     </row>
     <row r="752" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B752" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C752" t="s">
         <v>1527</v>
-      </c>
-      <c r="C752" t="s">
-        <v>1528</v>
       </c>
       <c r="D752" t="s">
         <v>1324</v>
@@ -26496,15 +26499,15 @@
         <v>29</v>
       </c>
       <c r="J752" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="753" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B753" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C753" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D753" t="s">
         <v>1324</v>
@@ -26524,10 +26527,10 @@
     </row>
     <row r="754" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B754" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C754" t="s">
         <v>1530</v>
-      </c>
-      <c r="C754" t="s">
-        <v>1531</v>
       </c>
       <c r="D754" t="s">
         <v>1324</v>
@@ -26547,10 +26550,10 @@
     </row>
     <row r="755" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B755" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C755" t="s">
         <v>1532</v>
-      </c>
-      <c r="C755" t="s">
-        <v>1533</v>
       </c>
       <c r="D755" t="s">
         <v>1324</v>
@@ -26568,15 +26571,15 @@
         <v>14</v>
       </c>
       <c r="K755" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="756" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B756" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C756" t="s">
         <v>1535</v>
-      </c>
-      <c r="C756" t="s">
-        <v>1536</v>
       </c>
       <c r="D756" t="s">
         <v>1324</v>
@@ -26594,15 +26597,15 @@
         <v>29</v>
       </c>
       <c r="J756" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="757" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B757" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C757" t="s">
         <v>1537</v>
-      </c>
-      <c r="C757" t="s">
-        <v>1538</v>
       </c>
       <c r="D757" t="s">
         <v>1324</v>
@@ -26622,10 +26625,10 @@
     </row>
     <row r="758" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B758" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C758" t="s">
         <v>1539</v>
-      </c>
-      <c r="C758" t="s">
-        <v>1540</v>
       </c>
       <c r="D758" t="s">
         <v>1324</v>
@@ -26643,15 +26646,15 @@
         <v>29</v>
       </c>
       <c r="J758" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="759" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B759" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C759" t="s">
         <v>1541</v>
-      </c>
-      <c r="C759" t="s">
-        <v>1542</v>
       </c>
       <c r="D759" t="s">
         <v>1324</v>
@@ -26671,10 +26674,10 @@
     </row>
     <row r="760" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B760" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C760" t="s">
         <v>1543</v>
-      </c>
-      <c r="C760" t="s">
-        <v>1544</v>
       </c>
       <c r="D760" t="s">
         <v>1324</v>
@@ -26694,10 +26697,10 @@
     </row>
     <row r="761" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B761" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C761" t="s">
         <v>1545</v>
-      </c>
-      <c r="C761" t="s">
-        <v>1546</v>
       </c>
       <c r="D761" t="s">
         <v>1324</v>
@@ -26720,10 +26723,10 @@
     </row>
     <row r="762" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B762" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C762" t="s">
         <v>1547</v>
-      </c>
-      <c r="C762" t="s">
-        <v>1548</v>
       </c>
       <c r="D762" t="s">
         <v>1324</v>
@@ -26743,10 +26746,10 @@
     </row>
     <row r="763" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B763" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C763" t="s">
         <v>1549</v>
-      </c>
-      <c r="C763" t="s">
-        <v>1550</v>
       </c>
       <c r="D763" t="s">
         <v>1324</v>
@@ -26766,10 +26769,10 @@
     </row>
     <row r="764" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B764" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C764" t="s">
         <v>1551</v>
-      </c>
-      <c r="C764" t="s">
-        <v>1552</v>
       </c>
       <c r="D764" t="s">
         <v>1324</v>
@@ -26792,7 +26795,7 @@
     </row>
     <row r="765" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B765" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C765" t="s">
         <v>1395</v>
@@ -26815,10 +26818,10 @@
     </row>
     <row r="766" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B766" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C766" t="s">
         <v>1554</v>
-      </c>
-      <c r="C766" t="s">
-        <v>1555</v>
       </c>
       <c r="D766" t="s">
         <v>1324</v>
@@ -26836,15 +26839,15 @@
         <v>29</v>
       </c>
       <c r="J766" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="767" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B767" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C767" t="s">
         <v>1556</v>
-      </c>
-      <c r="C767" t="s">
-        <v>1557</v>
       </c>
       <c r="D767" t="s">
         <v>1324</v>
@@ -26864,10 +26867,10 @@
     </row>
     <row r="768" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B768" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C768" t="s">
         <v>1558</v>
-      </c>
-      <c r="C768" t="s">
-        <v>1559</v>
       </c>
       <c r="D768" t="s">
         <v>1324</v>
@@ -26885,15 +26888,15 @@
         <v>29</v>
       </c>
       <c r="J768" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="769" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B769" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C769" t="s">
         <v>1560</v>
-      </c>
-      <c r="C769" t="s">
-        <v>1561</v>
       </c>
       <c r="D769" t="s">
         <v>1324</v>
@@ -26913,10 +26916,10 @@
     </row>
     <row r="770" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B770" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C770" t="s">
         <v>1562</v>
-      </c>
-      <c r="C770" t="s">
-        <v>1563</v>
       </c>
       <c r="D770" t="s">
         <v>1324</v>
@@ -26934,15 +26937,15 @@
         <v>29</v>
       </c>
       <c r="J770" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="771" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B771" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C771" t="s">
         <v>1564</v>
-      </c>
-      <c r="C771" t="s">
-        <v>1565</v>
       </c>
       <c r="D771" t="s">
         <v>1324</v>
@@ -26962,10 +26965,10 @@
     </row>
     <row r="772" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B772" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C772" t="s">
         <v>1566</v>
-      </c>
-      <c r="C772" t="s">
-        <v>1567</v>
       </c>
       <c r="D772" t="s">
         <v>1324</v>
@@ -26983,15 +26986,15 @@
         <v>29</v>
       </c>
       <c r="J772" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="773" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B773" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C773" t="s">
         <v>1568</v>
-      </c>
-      <c r="C773" t="s">
-        <v>1569</v>
       </c>
       <c r="D773" t="s">
         <v>1324</v>
@@ -27011,10 +27014,10 @@
     </row>
     <row r="774" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B774" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C774" t="s">
         <v>1570</v>
-      </c>
-      <c r="C774" t="s">
-        <v>1571</v>
       </c>
       <c r="D774" t="s">
         <v>1324</v>
@@ -27032,15 +27035,15 @@
         <v>29</v>
       </c>
       <c r="J774" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="775" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B775" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C775" t="s">
         <v>1572</v>
-      </c>
-      <c r="C775" t="s">
-        <v>1573</v>
       </c>
       <c r="D775" t="s">
         <v>1324</v>
@@ -27060,10 +27063,10 @@
     </row>
     <row r="776" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B776" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C776" t="s">
         <v>1574</v>
-      </c>
-      <c r="C776" t="s">
-        <v>1575</v>
       </c>
       <c r="D776" t="s">
         <v>1324</v>
@@ -27081,15 +27084,15 @@
         <v>29</v>
       </c>
       <c r="J776" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="777" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B777" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C777" t="s">
         <v>1576</v>
-      </c>
-      <c r="C777" t="s">
-        <v>1577</v>
       </c>
       <c r="D777" t="s">
         <v>1324</v>
@@ -27109,10 +27112,10 @@
     </row>
     <row r="778" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B778" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C778" t="s">
         <v>1578</v>
-      </c>
-      <c r="C778" t="s">
-        <v>1579</v>
       </c>
       <c r="D778" t="s">
         <v>1324</v>
@@ -27132,10 +27135,10 @@
     </row>
     <row r="779" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B779" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C779" t="s">
         <v>1580</v>
-      </c>
-      <c r="C779" t="s">
-        <v>1581</v>
       </c>
       <c r="D779" t="s">
         <v>1324</v>
@@ -27155,16 +27158,16 @@
     </row>
     <row r="780" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B780" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C780" t="s">
         <v>1582</v>
       </c>
-      <c r="C780" t="s">
+      <c r="D780" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E780" t="s">
         <v>1583</v>
-      </c>
-      <c r="D780" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E780" t="s">
-        <v>1584</v>
       </c>
       <c r="F780" s="1">
         <v>28856</v>
@@ -27181,10 +27184,10 @@
     </row>
     <row r="781" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B781" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C781" t="s">
         <v>1585</v>
-      </c>
-      <c r="C781" t="s">
-        <v>1586</v>
       </c>
       <c r="D781" t="s">
         <v>1324</v>
@@ -27204,10 +27207,10 @@
     </row>
     <row r="782" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B782" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C782" t="s">
         <v>1587</v>
-      </c>
-      <c r="C782" t="s">
-        <v>1588</v>
       </c>
       <c r="D782" t="s">
         <v>1324</v>
@@ -27227,10 +27230,10 @@
     </row>
     <row r="783" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B783" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C783" t="s">
         <v>1589</v>
-      </c>
-      <c r="C783" t="s">
-        <v>1590</v>
       </c>
       <c r="D783" t="s">
         <v>1324</v>
@@ -27248,21 +27251,21 @@
         <v>29</v>
       </c>
       <c r="J783" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="784" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B784" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C784" t="s">
         <v>1592</v>
       </c>
-      <c r="C784" t="s">
+      <c r="D784" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E784" t="s">
         <v>1593</v>
-      </c>
-      <c r="D784" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E784" t="s">
-        <v>1594</v>
       </c>
       <c r="F784" s="1">
         <v>36526</v>
@@ -27279,10 +27282,10 @@
     </row>
     <row r="785" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B785" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C785" t="s">
         <v>1595</v>
-      </c>
-      <c r="C785" t="s">
-        <v>1596</v>
       </c>
       <c r="D785" t="s">
         <v>1324</v>
@@ -27305,16 +27308,16 @@
     </row>
     <row r="786" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B786" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C786" t="s">
         <v>1597</v>
       </c>
-      <c r="C786" t="s">
+      <c r="D786" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E786" t="s">
         <v>1598</v>
-      </c>
-      <c r="D786" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E786" t="s">
-        <v>1599</v>
       </c>
       <c r="F786" s="1">
         <v>36161</v>
@@ -27331,10 +27334,10 @@
     </row>
     <row r="787" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B787" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C787" t="s">
         <v>1600</v>
-      </c>
-      <c r="C787" t="s">
-        <v>1601</v>
       </c>
       <c r="D787" t="s">
         <v>1324</v>
@@ -27357,10 +27360,10 @@
     </row>
     <row r="788" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B788" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C788" t="s">
         <v>1602</v>
-      </c>
-      <c r="C788" t="s">
-        <v>1603</v>
       </c>
       <c r="D788" t="s">
         <v>1324</v>
@@ -27380,10 +27383,10 @@
     </row>
     <row r="789" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B789" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C789" t="s">
         <v>1604</v>
-      </c>
-      <c r="C789" t="s">
-        <v>1605</v>
       </c>
       <c r="D789" t="s">
         <v>1324</v>
@@ -27406,10 +27409,10 @@
     </row>
     <row r="790" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B790" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C790" t="s">
         <v>1606</v>
-      </c>
-      <c r="C790" t="s">
-        <v>1607</v>
       </c>
       <c r="D790" t="s">
         <v>1324</v>
@@ -27429,10 +27432,10 @@
     </row>
     <row r="791" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B791" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C791" t="s">
         <v>1608</v>
-      </c>
-      <c r="C791" t="s">
-        <v>1609</v>
       </c>
       <c r="D791" t="s">
         <v>1324</v>
@@ -27452,10 +27455,10 @@
     </row>
     <row r="792" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B792" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C792" t="s">
         <v>1610</v>
-      </c>
-      <c r="C792" t="s">
-        <v>1611</v>
       </c>
       <c r="D792" t="s">
         <v>1324</v>
@@ -27475,10 +27478,10 @@
     </row>
     <row r="793" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B793" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C793" t="s">
         <v>1612</v>
-      </c>
-      <c r="C793" t="s">
-        <v>1613</v>
       </c>
       <c r="D793" t="s">
         <v>1324</v>
@@ -27498,16 +27501,16 @@
     </row>
     <row r="794" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B794" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C794" t="s">
         <v>1614</v>
       </c>
-      <c r="C794" t="s">
+      <c r="D794" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E794" t="s">
         <v>1615</v>
-      </c>
-      <c r="D794" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E794" t="s">
-        <v>1616</v>
       </c>
       <c r="F794" s="1">
         <v>35431</v>
@@ -27524,10 +27527,10 @@
     </row>
     <row r="795" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B795" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C795" t="s">
         <v>1617</v>
-      </c>
-      <c r="C795" t="s">
-        <v>1618</v>
       </c>
       <c r="D795" t="s">
         <v>1324</v>
@@ -27550,10 +27553,10 @@
     </row>
     <row r="796" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B796" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C796" t="s">
         <v>1619</v>
-      </c>
-      <c r="C796" t="s">
-        <v>1620</v>
       </c>
       <c r="D796" t="s">
         <v>1324</v>
@@ -27576,10 +27579,10 @@
     </row>
     <row r="797" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B797" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C797" t="s">
         <v>1621</v>
-      </c>
-      <c r="C797" t="s">
-        <v>1622</v>
       </c>
       <c r="D797" t="s">
         <v>1324</v>
@@ -27599,10 +27602,10 @@
     </row>
     <row r="798" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B798" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C798" t="s">
         <v>1621</v>
-      </c>
-      <c r="C798" t="s">
-        <v>1622</v>
       </c>
       <c r="D798" t="s">
         <v>1324</v>
@@ -27622,10 +27625,10 @@
     </row>
     <row r="799" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B799" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C799" t="s">
         <v>1623</v>
-      </c>
-      <c r="C799" t="s">
-        <v>1624</v>
       </c>
       <c r="D799" t="s">
         <v>1324</v>
@@ -27645,10 +27648,10 @@
     </row>
     <row r="800" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B800" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C800" t="s">
         <v>1625</v>
-      </c>
-      <c r="C800" t="s">
-        <v>1626</v>
       </c>
       <c r="D800" t="s">
         <v>1324</v>
@@ -27668,10 +27671,10 @@
     </row>
     <row r="801" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B801" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C801" t="s">
         <v>1627</v>
-      </c>
-      <c r="C801" t="s">
-        <v>1628</v>
       </c>
       <c r="D801" t="s">
         <v>1324</v>
@@ -27691,10 +27694,10 @@
     </row>
     <row r="802" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B802" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C802" t="s">
         <v>1629</v>
-      </c>
-      <c r="C802" t="s">
-        <v>1630</v>
       </c>
       <c r="D802" t="s">
         <v>1324</v>
@@ -27714,10 +27717,10 @@
     </row>
     <row r="803" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B803" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C803" t="s">
         <v>1631</v>
-      </c>
-      <c r="C803" t="s">
-        <v>1632</v>
       </c>
       <c r="D803" t="s">
         <v>1324</v>
@@ -27737,10 +27740,10 @@
     </row>
     <row r="804" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B804" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C804" t="s">
         <v>1633</v>
-      </c>
-      <c r="C804" t="s">
-        <v>1634</v>
       </c>
       <c r="D804" t="s">
         <v>1324</v>
@@ -27760,10 +27763,10 @@
     </row>
     <row r="805" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B805" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C805" t="s">
         <v>1635</v>
-      </c>
-      <c r="C805" t="s">
-        <v>1636</v>
       </c>
       <c r="D805" t="s">
         <v>1324</v>
@@ -27783,10 +27786,10 @@
     </row>
     <row r="806" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B806" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C806" t="s">
         <v>1637</v>
-      </c>
-      <c r="C806" t="s">
-        <v>1638</v>
       </c>
       <c r="D806" t="s">
         <v>1324</v>
@@ -27806,16 +27809,16 @@
     </row>
     <row r="807" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B807" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C807" t="s">
         <v>1639</v>
       </c>
-      <c r="C807" t="s">
+      <c r="D807" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E807" t="s">
         <v>1640</v>
-      </c>
-      <c r="D807" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E807" t="s">
-        <v>1641</v>
       </c>
       <c r="F807" s="1">
         <v>38353</v>
@@ -27832,10 +27835,10 @@
     </row>
     <row r="808" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B808" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C808" t="s">
         <v>1642</v>
-      </c>
-      <c r="C808" t="s">
-        <v>1643</v>
       </c>
       <c r="D808" t="s">
         <v>1324</v>
@@ -27855,10 +27858,10 @@
     </row>
     <row r="809" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B809" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C809" t="s">
         <v>1644</v>
-      </c>
-      <c r="C809" t="s">
-        <v>1645</v>
       </c>
       <c r="D809" t="s">
         <v>1324</v>
@@ -27878,10 +27881,10 @@
     </row>
     <row r="810" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B810" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C810" t="s">
         <v>1646</v>
-      </c>
-      <c r="C810" t="s">
-        <v>1647</v>
       </c>
       <c r="D810" t="s">
         <v>1324</v>
@@ -27901,10 +27904,10 @@
     </row>
     <row r="811" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B811" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C811" t="s">
         <v>1648</v>
-      </c>
-      <c r="C811" t="s">
-        <v>1649</v>
       </c>
       <c r="D811" t="s">
         <v>1324</v>
@@ -27924,10 +27927,10 @@
     </row>
     <row r="812" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B812" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C812" t="s">
         <v>1650</v>
-      </c>
-      <c r="C812" t="s">
-        <v>1651</v>
       </c>
       <c r="D812" t="s">
         <v>1324</v>
@@ -27947,10 +27950,10 @@
     </row>
     <row r="813" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B813" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C813" t="s">
         <v>1652</v>
-      </c>
-      <c r="C813" t="s">
-        <v>1653</v>
       </c>
       <c r="D813" t="s">
         <v>1324</v>
@@ -27970,10 +27973,10 @@
     </row>
     <row r="814" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B814" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C814" t="s">
         <v>1654</v>
-      </c>
-      <c r="C814" t="s">
-        <v>1655</v>
       </c>
       <c r="D814" t="s">
         <v>1324</v>
@@ -27996,10 +27999,10 @@
     </row>
     <row r="815" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B815" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C815" t="s">
         <v>1656</v>
-      </c>
-      <c r="C815" t="s">
-        <v>1657</v>
       </c>
       <c r="D815" t="s">
         <v>1324</v>
@@ -28019,10 +28022,10 @@
     </row>
     <row r="816" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B816" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C816" t="s">
         <v>1658</v>
-      </c>
-      <c r="C816" t="s">
-        <v>1659</v>
       </c>
       <c r="D816" t="s">
         <v>1324</v>
@@ -28042,10 +28045,10 @@
     </row>
     <row r="817" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B817" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C817" t="s">
         <v>1660</v>
-      </c>
-      <c r="C817" t="s">
-        <v>1661</v>
       </c>
       <c r="D817" t="s">
         <v>1324</v>
@@ -28065,10 +28068,10 @@
     </row>
     <row r="818" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B818" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C818" t="s">
         <v>1662</v>
-      </c>
-      <c r="C818" t="s">
-        <v>1663</v>
       </c>
       <c r="D818" t="s">
         <v>1324</v>
@@ -28088,10 +28091,10 @@
     </row>
     <row r="819" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B819" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C819" t="s">
         <v>1664</v>
-      </c>
-      <c r="C819" t="s">
-        <v>1665</v>
       </c>
       <c r="D819" t="s">
         <v>1324</v>
@@ -28111,10 +28114,10 @@
     </row>
     <row r="820" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B820" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C820" t="s">
         <v>1666</v>
-      </c>
-      <c r="C820" t="s">
-        <v>1667</v>
       </c>
       <c r="D820" t="s">
         <v>1324</v>
@@ -28134,10 +28137,10 @@
     </row>
     <row r="821" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B821" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C821" t="s">
         <v>1668</v>
-      </c>
-      <c r="C821" t="s">
-        <v>1669</v>
       </c>
       <c r="D821" t="s">
         <v>1324</v>
@@ -28157,10 +28160,10 @@
     </row>
     <row r="822" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B822" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C822" t="s">
         <v>1670</v>
-      </c>
-      <c r="C822" t="s">
-        <v>1671</v>
       </c>
       <c r="D822" t="s">
         <v>1324</v>
@@ -28180,10 +28183,10 @@
     </row>
     <row r="823" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B823" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C823" t="s">
         <v>1672</v>
-      </c>
-      <c r="C823" t="s">
-        <v>1673</v>
       </c>
       <c r="D823" t="s">
         <v>1324</v>
@@ -28203,10 +28206,10 @@
     </row>
     <row r="824" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B824" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C824" t="s">
         <v>1674</v>
-      </c>
-      <c r="C824" t="s">
-        <v>1675</v>
       </c>
       <c r="D824" t="s">
         <v>1324</v>
@@ -28226,10 +28229,10 @@
     </row>
     <row r="825" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B825" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C825" t="s">
         <v>1676</v>
-      </c>
-      <c r="C825" t="s">
-        <v>1677</v>
       </c>
       <c r="D825" t="s">
         <v>1324</v>
@@ -28249,10 +28252,10 @@
     </row>
     <row r="826" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B826" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C826" t="s">
         <v>1678</v>
-      </c>
-      <c r="C826" t="s">
-        <v>1679</v>
       </c>
       <c r="D826" t="s">
         <v>1324</v>
@@ -28275,10 +28278,10 @@
     </row>
     <row r="827" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B827" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C827" t="s">
         <v>1680</v>
-      </c>
-      <c r="C827" t="s">
-        <v>1681</v>
       </c>
       <c r="D827" t="s">
         <v>1324</v>
@@ -28298,10 +28301,10 @@
     </row>
     <row r="828" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B828" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C828" t="s">
         <v>1682</v>
-      </c>
-      <c r="C828" t="s">
-        <v>1683</v>
       </c>
       <c r="D828" t="s">
         <v>1324</v>
@@ -28321,10 +28324,10 @@
     </row>
     <row r="829" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B829" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C829" t="s">
         <v>1684</v>
-      </c>
-      <c r="C829" t="s">
-        <v>1685</v>
       </c>
       <c r="D829" t="s">
         <v>1324</v>
@@ -28344,10 +28347,10 @@
     </row>
     <row r="830" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B830" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C830" t="s">
         <v>1686</v>
-      </c>
-      <c r="C830" t="s">
-        <v>1687</v>
       </c>
       <c r="D830" t="s">
         <v>1324</v>
@@ -28370,7 +28373,7 @@
     </row>
     <row r="831" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B831" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C831" t="s">
         <v>1416</v>
@@ -28393,10 +28396,10 @@
     </row>
     <row r="832" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B832" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C832" t="s">
         <v>1689</v>
-      </c>
-      <c r="C832" t="s">
-        <v>1690</v>
       </c>
       <c r="D832" t="s">
         <v>1324</v>
@@ -28416,10 +28419,10 @@
     </row>
     <row r="833" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B833" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C833" t="s">
         <v>1691</v>
-      </c>
-      <c r="C833" t="s">
-        <v>1692</v>
       </c>
       <c r="D833" t="s">
         <v>1324</v>
@@ -28439,10 +28442,10 @@
     </row>
     <row r="834" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B834" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C834" t="s">
         <v>1693</v>
-      </c>
-      <c r="C834" t="s">
-        <v>1694</v>
       </c>
       <c r="D834" t="s">
         <v>1324</v>
@@ -28462,10 +28465,10 @@
     </row>
     <row r="835" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B835" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C835" t="s">
         <v>1695</v>
-      </c>
-      <c r="C835" t="s">
-        <v>1696</v>
       </c>
       <c r="D835" t="s">
         <v>1324</v>
@@ -28485,10 +28488,10 @@
     </row>
     <row r="836" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B836" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C836" t="s">
         <v>1697</v>
-      </c>
-      <c r="C836" t="s">
-        <v>1698</v>
       </c>
       <c r="D836" t="s">
         <v>1324</v>
@@ -28508,10 +28511,10 @@
     </row>
     <row r="837" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B837" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C837" t="s">
         <v>1699</v>
-      </c>
-      <c r="C837" t="s">
-        <v>1700</v>
       </c>
       <c r="D837" t="s">
         <v>1324</v>
@@ -28531,10 +28534,10 @@
     </row>
     <row r="838" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B838" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C838" t="s">
         <v>1701</v>
-      </c>
-      <c r="C838" t="s">
-        <v>1702</v>
       </c>
       <c r="D838" t="s">
         <v>1324</v>
@@ -28554,10 +28557,10 @@
     </row>
     <row r="839" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B839" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C839" t="s">
         <v>1703</v>
-      </c>
-      <c r="C839" t="s">
-        <v>1704</v>
       </c>
       <c r="D839" t="s">
         <v>1324</v>
@@ -28577,10 +28580,10 @@
     </row>
     <row r="840" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B840" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C840" t="s">
         <v>1705</v>
-      </c>
-      <c r="C840" t="s">
-        <v>1706</v>
       </c>
       <c r="D840" t="s">
         <v>1324</v>
@@ -28600,10 +28603,10 @@
     </row>
     <row r="841" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B841" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C841" t="s">
         <v>1707</v>
-      </c>
-      <c r="C841" t="s">
-        <v>1708</v>
       </c>
       <c r="D841" t="s">
         <v>1324</v>
@@ -28623,10 +28626,10 @@
     </row>
     <row r="842" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B842" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C842" t="s">
         <v>1709</v>
-      </c>
-      <c r="C842" t="s">
-        <v>1710</v>
       </c>
       <c r="D842" t="s">
         <v>1324</v>
@@ -28644,15 +28647,15 @@
         <v>29</v>
       </c>
       <c r="J842" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="843" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B843" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C843" t="s">
         <v>1711</v>
-      </c>
-      <c r="C843" t="s">
-        <v>1712</v>
       </c>
       <c r="D843" t="s">
         <v>1324</v>
@@ -28670,15 +28673,15 @@
         <v>14</v>
       </c>
       <c r="K843" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="844" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B844" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C844" t="s">
         <v>1714</v>
-      </c>
-      <c r="C844" t="s">
-        <v>1715</v>
       </c>
       <c r="D844" t="s">
         <v>1324</v>
@@ -28698,10 +28701,10 @@
     </row>
     <row r="845" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B845" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C845" t="s">
         <v>1716</v>
-      </c>
-      <c r="C845" t="s">
-        <v>1717</v>
       </c>
       <c r="D845" t="s">
         <v>1324</v>
@@ -28721,10 +28724,10 @@
     </row>
     <row r="846" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B846" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C846" t="s">
         <v>1718</v>
-      </c>
-      <c r="C846" t="s">
-        <v>1719</v>
       </c>
       <c r="D846" t="s">
         <v>1324</v>
@@ -28747,10 +28750,10 @@
     </row>
     <row r="847" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B847" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C847" t="s">
         <v>1720</v>
-      </c>
-      <c r="C847" t="s">
-        <v>1721</v>
       </c>
       <c r="D847" t="s">
         <v>1324</v>
@@ -28770,10 +28773,10 @@
     </row>
     <row r="848" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B848" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C848" t="s">
         <v>1722</v>
-      </c>
-      <c r="C848" t="s">
-        <v>1723</v>
       </c>
       <c r="D848" t="s">
         <v>1324</v>
@@ -28793,10 +28796,10 @@
     </row>
     <row r="849" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B849" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C849" t="s">
         <v>1724</v>
-      </c>
-      <c r="C849" t="s">
-        <v>1725</v>
       </c>
       <c r="D849" t="s">
         <v>1324</v>
@@ -28816,10 +28819,10 @@
     </row>
     <row r="850" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B850" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C850" t="s">
         <v>1726</v>
-      </c>
-      <c r="C850" t="s">
-        <v>1727</v>
       </c>
       <c r="D850" t="s">
         <v>1324</v>
@@ -28839,16 +28842,16 @@
     </row>
     <row r="851" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B851" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C851" t="s">
         <v>1728</v>
       </c>
-      <c r="C851" t="s">
-        <v>1729</v>
-      </c>
       <c r="D851" t="s">
         <v>1324</v>
       </c>
       <c r="E851" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F851" s="1">
         <v>35082</v>
@@ -28865,10 +28868,10 @@
     </row>
     <row r="852" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B852" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C852" t="s">
         <v>1730</v>
-      </c>
-      <c r="C852" t="s">
-        <v>1731</v>
       </c>
       <c r="D852" t="s">
         <v>1324</v>
@@ -28891,10 +28894,10 @@
     </row>
     <row r="853" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B853" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C853" t="s">
         <v>1732</v>
-      </c>
-      <c r="C853" t="s">
-        <v>1733</v>
       </c>
       <c r="D853" t="s">
         <v>1324</v>
@@ -28914,10 +28917,10 @@
     </row>
     <row r="854" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B854" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C854" t="s">
         <v>1734</v>
-      </c>
-      <c r="C854" t="s">
-        <v>1735</v>
       </c>
       <c r="D854" t="s">
         <v>1324</v>
@@ -28940,10 +28943,10 @@
     </row>
     <row r="855" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B855" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C855" t="s">
         <v>1736</v>
-      </c>
-      <c r="C855" t="s">
-        <v>1737</v>
       </c>
       <c r="D855" t="s">
         <v>1324</v>
@@ -28963,10 +28966,10 @@
     </row>
     <row r="856" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B856" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C856" t="s">
         <v>1738</v>
-      </c>
-      <c r="C856" t="s">
-        <v>1739</v>
       </c>
       <c r="D856" t="s">
         <v>1324</v>
@@ -28986,10 +28989,10 @@
     </row>
     <row r="857" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B857" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C857" t="s">
         <v>1740</v>
-      </c>
-      <c r="C857" t="s">
-        <v>1741</v>
       </c>
       <c r="D857" t="s">
         <v>1324</v>
@@ -29009,10 +29012,10 @@
     </row>
     <row r="858" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B858" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C858" t="s">
         <v>1742</v>
-      </c>
-      <c r="C858" t="s">
-        <v>1743</v>
       </c>
       <c r="D858" t="s">
         <v>1324</v>
@@ -29032,10 +29035,10 @@
     </row>
     <row r="859" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B859" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C859" t="s">
         <v>1744</v>
-      </c>
-      <c r="C859" t="s">
-        <v>1745</v>
       </c>
       <c r="D859" t="s">
         <v>1324</v>
@@ -29055,10 +29058,10 @@
     </row>
     <row r="860" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B860" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C860" t="s">
         <v>1746</v>
-      </c>
-      <c r="C860" t="s">
-        <v>1747</v>
       </c>
       <c r="D860" t="s">
         <v>1324</v>
@@ -29078,16 +29081,16 @@
     </row>
     <row r="861" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B861" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C861" t="s">
         <v>1748</v>
       </c>
-      <c r="C861" t="s">
-        <v>1749</v>
-      </c>
       <c r="D861" t="s">
         <v>1324</v>
       </c>
       <c r="E861" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F861" s="1">
         <v>36161</v>
@@ -29104,10 +29107,10 @@
     </row>
     <row r="862" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B862" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C862" t="s">
         <v>1750</v>
-      </c>
-      <c r="C862" t="s">
-        <v>1751</v>
       </c>
       <c r="D862" t="s">
         <v>1324</v>
@@ -29127,10 +29130,10 @@
     </row>
     <row r="863" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B863" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C863" t="s">
         <v>1752</v>
-      </c>
-      <c r="C863" t="s">
-        <v>1753</v>
       </c>
       <c r="D863" t="s">
         <v>1324</v>
@@ -29150,10 +29153,10 @@
     </row>
     <row r="864" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B864" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C864" t="s">
         <v>1754</v>
-      </c>
-      <c r="C864" t="s">
-        <v>1755</v>
       </c>
       <c r="D864" t="s">
         <v>1324</v>
@@ -29173,10 +29176,10 @@
     </row>
     <row r="865" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B865" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C865" t="s">
         <v>1756</v>
-      </c>
-      <c r="C865" t="s">
-        <v>1757</v>
       </c>
       <c r="D865" t="s">
         <v>1324</v>
@@ -29196,10 +29199,10 @@
     </row>
     <row r="866" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B866" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C866" t="s">
         <v>1758</v>
-      </c>
-      <c r="C866" t="s">
-        <v>1759</v>
       </c>
       <c r="D866" t="s">
         <v>1324</v>
@@ -29219,10 +29222,10 @@
     </row>
     <row r="867" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B867" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C867" t="s">
         <v>1760</v>
-      </c>
-      <c r="C867" t="s">
-        <v>1761</v>
       </c>
       <c r="D867" t="s">
         <v>1324</v>
@@ -29240,21 +29243,21 @@
         <v>14</v>
       </c>
       <c r="K867" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="868" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B868" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C868" t="s">
         <v>1763</v>
       </c>
-      <c r="C868" t="s">
-        <v>1764</v>
-      </c>
       <c r="D868" t="s">
         <v>1324</v>
       </c>
       <c r="E868" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F868" s="1">
         <v>35431</v>
@@ -29271,10 +29274,10 @@
     </row>
     <row r="869" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B869" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C869" t="s">
         <v>1765</v>
-      </c>
-      <c r="C869" t="s">
-        <v>1766</v>
       </c>
       <c r="D869" t="s">
         <v>1324</v>
@@ -29294,10 +29297,10 @@
     </row>
     <row r="870" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B870" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C870" t="s">
         <v>1767</v>
-      </c>
-      <c r="C870" t="s">
-        <v>1768</v>
       </c>
       <c r="D870" t="s">
         <v>1324</v>
@@ -29317,10 +29320,10 @@
     </row>
     <row r="871" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B871" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C871" t="s">
         <v>1769</v>
-      </c>
-      <c r="C871" t="s">
-        <v>1770</v>
       </c>
       <c r="D871" t="s">
         <v>1324</v>
@@ -29340,10 +29343,10 @@
     </row>
     <row r="872" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B872" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C872" t="s">
         <v>1771</v>
-      </c>
-      <c r="C872" t="s">
-        <v>1772</v>
       </c>
       <c r="D872" t="s">
         <v>1324</v>
@@ -29366,10 +29369,10 @@
     </row>
     <row r="873" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B873" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C873" t="s">
         <v>1773</v>
-      </c>
-      <c r="C873" t="s">
-        <v>1774</v>
       </c>
       <c r="D873" t="s">
         <v>1324</v>
@@ -29389,10 +29392,10 @@
     </row>
     <row r="874" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B874" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C874" t="s">
         <v>1775</v>
-      </c>
-      <c r="C874" t="s">
-        <v>1776</v>
       </c>
       <c r="D874" t="s">
         <v>1324</v>
@@ -29412,10 +29415,10 @@
     </row>
     <row r="875" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B875" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C875" t="s">
         <v>1777</v>
-      </c>
-      <c r="C875" t="s">
-        <v>1778</v>
       </c>
       <c r="D875" t="s">
         <v>1324</v>
@@ -29435,10 +29438,10 @@
     </row>
     <row r="876" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B876" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C876" t="s">
         <v>1779</v>
-      </c>
-      <c r="C876" t="s">
-        <v>1780</v>
       </c>
       <c r="D876" t="s">
         <v>1324</v>
@@ -29458,10 +29461,10 @@
     </row>
     <row r="877" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B877" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C877" t="s">
         <v>1781</v>
-      </c>
-      <c r="C877" t="s">
-        <v>1782</v>
       </c>
       <c r="D877" t="s">
         <v>1324</v>
@@ -29481,10 +29484,10 @@
     </row>
     <row r="878" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B878" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C878" t="s">
         <v>1783</v>
-      </c>
-      <c r="C878" t="s">
-        <v>1784</v>
       </c>
       <c r="D878" t="s">
         <v>1324</v>
@@ -29502,15 +29505,15 @@
         <v>29</v>
       </c>
       <c r="J878" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="879" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B879" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C879" t="s">
         <v>1786</v>
-      </c>
-      <c r="C879" t="s">
-        <v>1787</v>
       </c>
       <c r="D879" t="s">
         <v>1324</v>
@@ -29536,10 +29539,10 @@
     </row>
     <row r="880" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B880" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C880" t="s">
         <v>1788</v>
-      </c>
-      <c r="C880" t="s">
-        <v>1789</v>
       </c>
       <c r="D880" t="s">
         <v>1324</v>
@@ -29562,10 +29565,10 @@
     </row>
     <row r="881" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B881" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C881" t="s">
         <v>1790</v>
-      </c>
-      <c r="C881" t="s">
-        <v>1791</v>
       </c>
       <c r="D881" t="s">
         <v>1324</v>
@@ -29588,10 +29591,10 @@
     </row>
     <row r="882" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B882" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C882" t="s">
         <v>1792</v>
-      </c>
-      <c r="C882" t="s">
-        <v>1793</v>
       </c>
       <c r="D882" t="s">
         <v>1324</v>
@@ -29611,10 +29614,10 @@
     </row>
     <row r="883" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B883" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C883" t="s">
         <v>1794</v>
-      </c>
-      <c r="C883" t="s">
-        <v>1795</v>
       </c>
       <c r="D883" t="s">
         <v>1324</v>
@@ -29634,10 +29637,10 @@
     </row>
     <row r="884" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B884" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C884" t="s">
         <v>1796</v>
-      </c>
-      <c r="C884" t="s">
-        <v>1797</v>
       </c>
       <c r="D884" t="s">
         <v>1324</v>
@@ -29660,10 +29663,10 @@
     </row>
     <row r="885" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B885" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C885" t="s">
         <v>1798</v>
-      </c>
-      <c r="C885" t="s">
-        <v>1799</v>
       </c>
       <c r="D885" t="s">
         <v>1324</v>
@@ -29686,10 +29689,10 @@
     </row>
     <row r="886" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B886" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C886" t="s">
         <v>1800</v>
-      </c>
-      <c r="C886" t="s">
-        <v>1801</v>
       </c>
       <c r="D886" t="s">
         <v>1324</v>
@@ -29712,10 +29715,10 @@
     </row>
     <row r="887" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B887" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C887" t="s">
         <v>1802</v>
-      </c>
-      <c r="C887" t="s">
-        <v>1803</v>
       </c>
       <c r="D887" t="s">
         <v>1324</v>
@@ -29738,10 +29741,10 @@
     </row>
     <row r="888" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B888" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C888" t="s">
         <v>1804</v>
-      </c>
-      <c r="C888" t="s">
-        <v>1805</v>
       </c>
       <c r="D888" t="s">
         <v>1324</v>
@@ -29761,10 +29764,10 @@
     </row>
     <row r="889" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B889" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C889" t="s">
         <v>1806</v>
-      </c>
-      <c r="C889" t="s">
-        <v>1807</v>
       </c>
       <c r="D889" t="s">
         <v>1324</v>
@@ -29787,10 +29790,10 @@
     </row>
     <row r="890" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B890" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C890" t="s">
         <v>1808</v>
-      </c>
-      <c r="C890" t="s">
-        <v>1809</v>
       </c>
       <c r="D890" t="s">
         <v>1324</v>
@@ -29810,10 +29813,10 @@
     </row>
     <row r="891" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B891" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C891" t="s">
         <v>1810</v>
-      </c>
-      <c r="C891" t="s">
-        <v>1811</v>
       </c>
       <c r="D891" t="s">
         <v>1324</v>
@@ -29836,10 +29839,10 @@
     </row>
     <row r="892" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B892" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C892" t="s">
         <v>1812</v>
-      </c>
-      <c r="C892" t="s">
-        <v>1813</v>
       </c>
       <c r="D892" t="s">
         <v>1324</v>
@@ -29862,10 +29865,10 @@
     </row>
     <row r="893" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B893" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C893" t="s">
         <v>1814</v>
-      </c>
-      <c r="C893" t="s">
-        <v>1815</v>
       </c>
       <c r="D893" t="s">
         <v>1324</v>
@@ -29885,10 +29888,10 @@
     </row>
     <row r="894" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B894" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C894" t="s">
         <v>1816</v>
-      </c>
-      <c r="C894" t="s">
-        <v>1817</v>
       </c>
       <c r="D894" t="s">
         <v>1324</v>
@@ -29911,10 +29914,10 @@
     </row>
     <row r="895" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B895" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C895" t="s">
         <v>1818</v>
-      </c>
-      <c r="C895" t="s">
-        <v>1819</v>
       </c>
       <c r="D895" t="s">
         <v>1324</v>
@@ -29934,10 +29937,10 @@
     </row>
     <row r="896" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B896" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C896" t="s">
         <v>1820</v>
-      </c>
-      <c r="C896" t="s">
-        <v>1821</v>
       </c>
       <c r="D896" t="s">
         <v>1324</v>
@@ -29960,10 +29963,10 @@
     </row>
     <row r="897" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B897" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C897" t="s">
         <v>1822</v>
-      </c>
-      <c r="C897" t="s">
-        <v>1823</v>
       </c>
       <c r="D897" t="s">
         <v>1324</v>
@@ -29983,10 +29986,10 @@
     </row>
     <row r="898" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B898" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C898" t="s">
         <v>1824</v>
-      </c>
-      <c r="C898" t="s">
-        <v>1825</v>
       </c>
       <c r="D898" t="s">
         <v>1324</v>
@@ -30009,10 +30012,10 @@
     </row>
     <row r="899" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B899" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C899" t="s">
         <v>1826</v>
-      </c>
-      <c r="C899" t="s">
-        <v>1827</v>
       </c>
       <c r="D899" t="s">
         <v>1324</v>
@@ -30035,10 +30038,10 @@
     </row>
     <row r="900" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B900" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C900" t="s">
         <v>1828</v>
-      </c>
-      <c r="C900" t="s">
-        <v>1829</v>
       </c>
       <c r="D900" t="s">
         <v>1324</v>
@@ -30061,10 +30064,10 @@
     </row>
     <row r="901" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B901" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C901" t="s">
         <v>1830</v>
-      </c>
-      <c r="C901" t="s">
-        <v>1831</v>
       </c>
       <c r="D901" t="s">
         <v>1324</v>
@@ -30087,10 +30090,10 @@
     </row>
     <row r="902" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B902" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C902" t="s">
         <v>1832</v>
-      </c>
-      <c r="C902" t="s">
-        <v>1833</v>
       </c>
       <c r="D902" t="s">
         <v>1324</v>
@@ -30113,10 +30116,10 @@
     </row>
     <row r="903" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B903" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C903" t="s">
         <v>1834</v>
-      </c>
-      <c r="C903" t="s">
-        <v>1835</v>
       </c>
       <c r="D903" t="s">
         <v>1324</v>
@@ -30139,10 +30142,10 @@
     </row>
     <row r="904" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B904" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C904" t="s">
         <v>1836</v>
-      </c>
-      <c r="C904" t="s">
-        <v>1837</v>
       </c>
       <c r="D904" t="s">
         <v>1324</v>
@@ -30165,10 +30168,10 @@
     </row>
     <row r="905" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B905" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C905" t="s">
         <v>1836</v>
-      </c>
-      <c r="C905" t="s">
-        <v>1837</v>
       </c>
       <c r="D905" t="s">
         <v>1324</v>
@@ -30191,10 +30194,10 @@
     </row>
     <row r="906" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B906" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C906" t="s">
         <v>1838</v>
-      </c>
-      <c r="C906" t="s">
-        <v>1839</v>
       </c>
       <c r="D906" t="s">
         <v>1324</v>
@@ -30217,10 +30220,10 @@
     </row>
     <row r="907" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B907" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C907" t="s">
         <v>1840</v>
-      </c>
-      <c r="C907" t="s">
-        <v>1841</v>
       </c>
       <c r="D907" t="s">
         <v>1324</v>
@@ -30243,10 +30246,10 @@
     </row>
     <row r="908" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B908" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C908" t="s">
         <v>1842</v>
-      </c>
-      <c r="C908" t="s">
-        <v>1843</v>
       </c>
       <c r="D908" t="s">
         <v>1324</v>
@@ -30269,10 +30272,10 @@
     </row>
     <row r="909" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B909" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C909" t="s">
         <v>1844</v>
-      </c>
-      <c r="C909" t="s">
-        <v>1845</v>
       </c>
       <c r="D909" t="s">
         <v>1324</v>
@@ -30295,10 +30298,10 @@
     </row>
     <row r="910" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B910" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C910" t="s">
         <v>1846</v>
-      </c>
-      <c r="C910" t="s">
-        <v>1847</v>
       </c>
       <c r="D910" t="s">
         <v>1324</v>
@@ -30321,10 +30324,10 @@
     </row>
     <row r="911" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B911" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C911" t="s">
         <v>1848</v>
-      </c>
-      <c r="C911" t="s">
-        <v>1849</v>
       </c>
       <c r="D911" t="s">
         <v>1324</v>
@@ -30347,10 +30350,10 @@
     </row>
     <row r="912" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B912" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C912" t="s">
         <v>1850</v>
-      </c>
-      <c r="C912" t="s">
-        <v>1851</v>
       </c>
       <c r="D912" t="s">
         <v>1324</v>
@@ -30373,10 +30376,10 @@
     </row>
     <row r="913" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B913" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C913" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D913" t="s">
         <v>1324</v>
@@ -30399,10 +30402,10 @@
     </row>
     <row r="914" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B914" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C914" t="s">
         <v>1853</v>
-      </c>
-      <c r="C914" t="s">
-        <v>1854</v>
       </c>
       <c r="D914" t="s">
         <v>1324</v>
@@ -30425,10 +30428,10 @@
     </row>
     <row r="915" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B915" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C915" t="s">
         <v>1855</v>
-      </c>
-      <c r="C915" t="s">
-        <v>1856</v>
       </c>
       <c r="D915" t="s">
         <v>1324</v>
@@ -30451,10 +30454,10 @@
     </row>
     <row r="916" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B916" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C916" t="s">
         <v>1857</v>
-      </c>
-      <c r="C916" t="s">
-        <v>1858</v>
       </c>
       <c r="D916" t="s">
         <v>1324</v>
@@ -30474,10 +30477,10 @@
     </row>
     <row r="917" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B917" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C917" t="s">
         <v>1859</v>
-      </c>
-      <c r="C917" t="s">
-        <v>1860</v>
       </c>
       <c r="D917" t="s">
         <v>1324</v>
@@ -30497,10 +30500,10 @@
     </row>
     <row r="918" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B918" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C918" t="s">
         <v>1861</v>
-      </c>
-      <c r="C918" t="s">
-        <v>1862</v>
       </c>
       <c r="D918" t="s">
         <v>1324</v>
@@ -30523,7 +30526,7 @@
     </row>
     <row r="919" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B919" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="C919" t="s">
         <v>1440</v>
@@ -30546,10 +30549,10 @@
     </row>
     <row r="920" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B920" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C920" t="s">
         <v>1864</v>
-      </c>
-      <c r="C920" t="s">
-        <v>1865</v>
       </c>
       <c r="D920" t="s">
         <v>1324</v>
@@ -30569,10 +30572,10 @@
     </row>
     <row r="921" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B921" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C921" t="s">
         <v>1866</v>
-      </c>
-      <c r="C921" t="s">
-        <v>1867</v>
       </c>
       <c r="D921" t="s">
         <v>1324</v>
@@ -30590,15 +30593,15 @@
         <v>14</v>
       </c>
       <c r="K921" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="922" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B922" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C922" t="s">
         <v>1869</v>
-      </c>
-      <c r="C922" t="s">
-        <v>1870</v>
       </c>
       <c r="D922" t="s">
         <v>1324</v>
@@ -30616,15 +30619,15 @@
         <v>14</v>
       </c>
       <c r="K922" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="923" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B923" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C923" t="s">
         <v>1872</v>
-      </c>
-      <c r="C923" t="s">
-        <v>1873</v>
       </c>
       <c r="D923" t="s">
         <v>1324</v>
@@ -30641,10 +30644,10 @@
     </row>
     <row r="924" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B924" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C924" t="s">
         <v>1874</v>
-      </c>
-      <c r="C924" t="s">
-        <v>1875</v>
       </c>
       <c r="D924" t="s">
         <v>1324</v>
@@ -30662,15 +30665,15 @@
         <v>14</v>
       </c>
       <c r="K924" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="925" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B925" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C925" t="s">
         <v>1877</v>
-      </c>
-      <c r="C925" t="s">
-        <v>1878</v>
       </c>
       <c r="D925" t="s">
         <v>1324</v>
@@ -30690,10 +30693,10 @@
     </row>
     <row r="926" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B926" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C926" t="s">
         <v>1879</v>
-      </c>
-      <c r="C926" t="s">
-        <v>1880</v>
       </c>
       <c r="D926" t="s">
         <v>1324</v>
@@ -30711,15 +30714,15 @@
         <v>14</v>
       </c>
       <c r="K926" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="927" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B927" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C927" t="s">
         <v>1882</v>
-      </c>
-      <c r="C927" t="s">
-        <v>1883</v>
       </c>
       <c r="D927" t="s">
         <v>1324</v>
@@ -30734,18 +30737,18 @@
         <v>29</v>
       </c>
       <c r="J927" t="s">
+        <v>1883</v>
+      </c>
+      <c r="K927" t="s">
         <v>1884</v>
-      </c>
-      <c r="K927" t="s">
-        <v>1885</v>
       </c>
     </row>
     <row r="928" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B928" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C928" t="s">
         <v>1882</v>
-      </c>
-      <c r="C928" t="s">
-        <v>1883</v>
       </c>
       <c r="D928" t="s">
         <v>1324</v>
@@ -30763,18 +30766,18 @@
         <v>29</v>
       </c>
       <c r="J928" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="K928" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="929" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B929" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C929" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="D929" t="s">
         <v>1324</v>
@@ -30792,15 +30795,15 @@
         <v>14</v>
       </c>
       <c r="K929" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="930" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B930" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C930" t="s">
         <v>1889</v>
-      </c>
-      <c r="C930" t="s">
-        <v>1890</v>
       </c>
       <c r="D930" t="s">
         <v>1324</v>
@@ -30818,15 +30821,15 @@
         <v>29</v>
       </c>
       <c r="J930" t="s">
+        <v>1890</v>
+      </c>
+      <c r="K930" t="s">
         <v>1891</v>
-      </c>
-      <c r="K930" t="s">
-        <v>1892</v>
       </c>
     </row>
     <row r="931" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B931" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C931" t="s">
         <v>1442</v>
@@ -30847,7 +30850,7 @@
         <v>14</v>
       </c>
       <c r="K931" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="932" spans="2:11" x14ac:dyDescent="0.2">
@@ -30855,7 +30858,7 @@
         <v>1308</v>
       </c>
       <c r="C932" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D932" t="s">
         <v>1324</v>
@@ -30872,10 +30875,10 @@
     </row>
     <row r="933" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B933" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C933" t="s">
         <v>1895</v>
-      </c>
-      <c r="C933" t="s">
-        <v>1896</v>
       </c>
       <c r="D933" t="s">
         <v>1324</v>
@@ -30890,18 +30893,18 @@
         <v>29</v>
       </c>
       <c r="J933" t="s">
+        <v>1896</v>
+      </c>
+      <c r="K933" t="s">
         <v>1897</v>
-      </c>
-      <c r="K933" t="s">
-        <v>1898</v>
       </c>
     </row>
     <row r="934" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B934" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C934" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D934" t="s">
         <v>1324</v>
@@ -30916,15 +30919,15 @@
         <v>14</v>
       </c>
       <c r="K934" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="935" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B935" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C935" t="s">
         <v>1901</v>
-      </c>
-      <c r="C935" t="s">
-        <v>1902</v>
       </c>
       <c r="D935" t="s">
         <v>1324</v>
@@ -30939,15 +30942,15 @@
         <v>14</v>
       </c>
       <c r="K935" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="936" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B936" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C936" t="s">
         <v>1903</v>
-      </c>
-      <c r="C936" t="s">
-        <v>1904</v>
       </c>
       <c r="D936" t="s">
         <v>1324</v>
@@ -30965,15 +30968,15 @@
         <v>14</v>
       </c>
       <c r="K936" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="937" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B937" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C937" t="s">
         <v>1905</v>
-      </c>
-      <c r="C937" t="s">
-        <v>1906</v>
       </c>
       <c r="D937" t="s">
         <v>1324</v>
@@ -30990,10 +30993,10 @@
     </row>
     <row r="938" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B938" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C938" t="s">
         <v>1907</v>
-      </c>
-      <c r="C938" t="s">
-        <v>1908</v>
       </c>
       <c r="D938" t="s">
         <v>1324</v>
@@ -31008,15 +31011,15 @@
         <v>14</v>
       </c>
       <c r="K938" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="939" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B939" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C939" t="s">
         <v>1910</v>
-      </c>
-      <c r="C939" t="s">
-        <v>1911</v>
       </c>
       <c r="D939" t="s">
         <v>1324</v>
@@ -31031,15 +31034,15 @@
         <v>14</v>
       </c>
       <c r="K939" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="940" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B940" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C940" t="s">
         <v>1913</v>
-      </c>
-      <c r="C940" t="s">
-        <v>1914</v>
       </c>
       <c r="D940" t="s">
         <v>1324</v>
@@ -31057,15 +31060,15 @@
         <v>14</v>
       </c>
       <c r="K940" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="941" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B941" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C941" t="s">
         <v>1916</v>
-      </c>
-      <c r="C941" t="s">
-        <v>1917</v>
       </c>
       <c r="D941" t="s">
         <v>1324</v>
@@ -31083,15 +31086,15 @@
         <v>14</v>
       </c>
       <c r="K941" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="942" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B942" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C942" t="s">
         <v>1919</v>
-      </c>
-      <c r="C942" t="s">
-        <v>1920</v>
       </c>
       <c r="D942" t="s">
         <v>1324</v>
@@ -31111,10 +31114,10 @@
     </row>
     <row r="943" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B943" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C943" t="s">
         <v>1921</v>
-      </c>
-      <c r="C943" t="s">
-        <v>1922</v>
       </c>
       <c r="D943" t="s">
         <v>1324</v>
@@ -31132,15 +31135,15 @@
         <v>14</v>
       </c>
       <c r="K943" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="944" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B944" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C944" t="s">
         <v>1923</v>
-      </c>
-      <c r="C944" t="s">
-        <v>1924</v>
       </c>
       <c r="D944" t="s">
         <v>1324</v>
@@ -31158,18 +31161,18 @@
         <v>29</v>
       </c>
       <c r="J944" t="s">
+        <v>1924</v>
+      </c>
+      <c r="K944" t="s">
         <v>1925</v>
-      </c>
-      <c r="K944" t="s">
-        <v>1926</v>
       </c>
     </row>
     <row r="945" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B945" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C945" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D945" t="s">
         <v>1324</v>
@@ -31189,10 +31192,10 @@
     </row>
     <row r="946" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B946" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C946" t="s">
         <v>1928</v>
-      </c>
-      <c r="C946" t="s">
-        <v>1929</v>
       </c>
       <c r="D946" t="s">
         <v>1324</v>
@@ -31210,18 +31213,18 @@
         <v>29</v>
       </c>
       <c r="J946" t="s">
+        <v>1929</v>
+      </c>
+      <c r="K946" t="s">
         <v>1930</v>
-      </c>
-      <c r="K946" t="s">
-        <v>1931</v>
       </c>
     </row>
     <row r="947" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B947" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C947" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D947" t="s">
         <v>1324</v>
@@ -31241,10 +31244,10 @@
     </row>
     <row r="948" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B948" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C948" t="s">
         <v>1932</v>
-      </c>
-      <c r="C948" t="s">
-        <v>1933</v>
       </c>
       <c r="D948" t="s">
         <v>1324</v>
@@ -31262,15 +31265,15 @@
         <v>14</v>
       </c>
       <c r="K948" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="949" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B949" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C949" t="s">
         <v>1935</v>
-      </c>
-      <c r="C949" t="s">
-        <v>1936</v>
       </c>
       <c r="D949" t="s">
         <v>1324</v>
@@ -31288,15 +31291,15 @@
         <v>14</v>
       </c>
       <c r="K949" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="950" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B950" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C950" t="s">
         <v>1938</v>
-      </c>
-      <c r="C950" t="s">
-        <v>1939</v>
       </c>
       <c r="D950" t="s">
         <v>1324</v>
@@ -31314,15 +31317,15 @@
         <v>14</v>
       </c>
       <c r="K950" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="951" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B951" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C951" t="s">
         <v>1941</v>
-      </c>
-      <c r="C951" t="s">
-        <v>1942</v>
       </c>
       <c r="D951" t="s">
         <v>1324</v>
@@ -31340,15 +31343,15 @@
         <v>14</v>
       </c>
       <c r="K951" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="952" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B952" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C952" t="s">
         <v>1944</v>
-      </c>
-      <c r="C952" t="s">
-        <v>1945</v>
       </c>
       <c r="D952" t="s">
         <v>1324</v>
@@ -31366,15 +31369,15 @@
         <v>14</v>
       </c>
       <c r="K952" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="953" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B953" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C953" t="s">
         <v>1947</v>
-      </c>
-      <c r="C953" t="s">
-        <v>1948</v>
       </c>
       <c r="D953" t="s">
         <v>1324</v>
@@ -31394,10 +31397,10 @@
     </row>
     <row r="954" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B954" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C954" t="s">
         <v>1949</v>
-      </c>
-      <c r="C954" t="s">
-        <v>1950</v>
       </c>
       <c r="D954" t="s">
         <v>1324</v>
@@ -31417,10 +31420,10 @@
     </row>
     <row r="955" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B955" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C955" t="s">
         <v>1951</v>
-      </c>
-      <c r="C955" t="s">
-        <v>1952</v>
       </c>
       <c r="D955" t="s">
         <v>1324</v>
@@ -31440,10 +31443,10 @@
     </row>
     <row r="956" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B956" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C956" t="s">
         <v>1953</v>
-      </c>
-      <c r="C956" t="s">
-        <v>1954</v>
       </c>
       <c r="D956" t="s">
         <v>1324</v>
@@ -31463,10 +31466,10 @@
     </row>
     <row r="957" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B957" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C957" t="s">
         <v>1955</v>
-      </c>
-      <c r="C957" t="s">
-        <v>1956</v>
       </c>
       <c r="D957" t="s">
         <v>1324</v>
@@ -31483,10 +31486,10 @@
     </row>
     <row r="958" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B958" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C958" t="s">
         <v>1957</v>
-      </c>
-      <c r="C958" t="s">
-        <v>1958</v>
       </c>
       <c r="D958" t="s">
         <v>1324</v>
@@ -31503,10 +31506,10 @@
     </row>
     <row r="959" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B959" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C959" t="s">
         <v>1959</v>
-      </c>
-      <c r="C959" t="s">
-        <v>1960</v>
       </c>
       <c r="D959" t="s">
         <v>1324</v>
@@ -31524,15 +31527,15 @@
         <v>14</v>
       </c>
       <c r="K959" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="960" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B960" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C960" t="s">
         <v>1962</v>
-      </c>
-      <c r="C960" t="s">
-        <v>1963</v>
       </c>
       <c r="D960" t="s">
         <v>1324</v>
@@ -31550,15 +31553,15 @@
         <v>14</v>
       </c>
       <c r="K960" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="961" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B961" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C961" t="s">
         <v>1964</v>
-      </c>
-      <c r="C961" t="s">
-        <v>1965</v>
       </c>
       <c r="D961" t="s">
         <v>1324</v>
@@ -31576,15 +31579,15 @@
         <v>14</v>
       </c>
       <c r="K961" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="962" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B962" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C962" t="s">
         <v>1966</v>
-      </c>
-      <c r="C962" t="s">
-        <v>1967</v>
       </c>
       <c r="D962" t="s">
         <v>1324</v>
@@ -31602,15 +31605,15 @@
         <v>14</v>
       </c>
       <c r="K962" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="963" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B963" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C963" t="s">
         <v>1968</v>
-      </c>
-      <c r="C963" t="s">
-        <v>1969</v>
       </c>
       <c r="D963" t="s">
         <v>1324</v>
@@ -31628,15 +31631,15 @@
         <v>14</v>
       </c>
       <c r="K963" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="964" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B964" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C964" t="s">
         <v>1970</v>
-      </c>
-      <c r="C964" t="s">
-        <v>1971</v>
       </c>
       <c r="D964" t="s">
         <v>1324</v>
@@ -31653,10 +31656,10 @@
     </row>
     <row r="965" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B965" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C965" t="s">
         <v>1972</v>
-      </c>
-      <c r="C965" t="s">
-        <v>1973</v>
       </c>
       <c r="D965" t="s">
         <v>1324</v>
@@ -31674,15 +31677,15 @@
         <v>14</v>
       </c>
       <c r="K965" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="966" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B966" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C966" t="s">
         <v>1975</v>
-      </c>
-      <c r="C966" t="s">
-        <v>1976</v>
       </c>
       <c r="D966" t="s">
         <v>1324</v>
@@ -31700,15 +31703,15 @@
         <v>14</v>
       </c>
       <c r="K966" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="967" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B967" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C967" t="s">
         <v>1978</v>
-      </c>
-      <c r="C967" t="s">
-        <v>1979</v>
       </c>
       <c r="D967" t="s">
         <v>1324</v>
@@ -31728,10 +31731,10 @@
     </row>
     <row r="968" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B968" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C968" t="s">
         <v>1980</v>
-      </c>
-      <c r="C968" t="s">
-        <v>1981</v>
       </c>
       <c r="D968" t="s">
         <v>1324</v>
@@ -31749,18 +31752,18 @@
         <v>29</v>
       </c>
       <c r="J968" t="s">
+        <v>1981</v>
+      </c>
+      <c r="K968" t="s">
         <v>1982</v>
-      </c>
-      <c r="K968" t="s">
-        <v>1983</v>
       </c>
     </row>
     <row r="969" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B969" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C969" t="s">
         <v>1984</v>
-      </c>
-      <c r="C969" t="s">
-        <v>1985</v>
       </c>
       <c r="D969" t="s">
         <v>1324</v>
@@ -31778,15 +31781,15 @@
         <v>14</v>
       </c>
       <c r="K969" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="970" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B970" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C970" t="s">
         <v>1986</v>
-      </c>
-      <c r="C970" t="s">
-        <v>1987</v>
       </c>
       <c r="D970" t="s">
         <v>1324</v>
@@ -31803,10 +31806,10 @@
     </row>
     <row r="971" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B971" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C971" t="s">
         <v>1988</v>
-      </c>
-      <c r="C971" t="s">
-        <v>1989</v>
       </c>
       <c r="D971" t="s">
         <v>1324</v>
@@ -31826,10 +31829,10 @@
     </row>
     <row r="972" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B972" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C972" t="s">
         <v>1990</v>
-      </c>
-      <c r="C972" t="s">
-        <v>1991</v>
       </c>
       <c r="D972" t="s">
         <v>1324</v>
@@ -31849,10 +31852,10 @@
     </row>
     <row r="973" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B973" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C973" t="s">
         <v>1992</v>
-      </c>
-      <c r="C973" t="s">
-        <v>1993</v>
       </c>
       <c r="D973" t="s">
         <v>1324</v>
@@ -31869,10 +31872,10 @@
     </row>
     <row r="974" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B974" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C974" t="s">
         <v>1994</v>
-      </c>
-      <c r="C974" t="s">
-        <v>1995</v>
       </c>
       <c r="D974" t="s">
         <v>1324</v>
@@ -31892,10 +31895,10 @@
     </row>
     <row r="975" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B975" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C975" t="s">
         <v>1996</v>
-      </c>
-      <c r="C975" t="s">
-        <v>1997</v>
       </c>
       <c r="D975" t="s">
         <v>1324</v>
@@ -31913,15 +31916,15 @@
         <v>14</v>
       </c>
       <c r="K975" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="976" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B976" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C976" t="s">
         <v>1998</v>
-      </c>
-      <c r="C976" t="s">
-        <v>1999</v>
       </c>
       <c r="D976" t="s">
         <v>1324</v>
@@ -31938,10 +31941,10 @@
     </row>
     <row r="977" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B977" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C977" t="s">
         <v>2000</v>
-      </c>
-      <c r="C977" t="s">
-        <v>2001</v>
       </c>
       <c r="D977" t="s">
         <v>1324</v>
@@ -31959,15 +31962,15 @@
         <v>14</v>
       </c>
       <c r="K977" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="978" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B978" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C978" t="s">
         <v>2002</v>
-      </c>
-      <c r="C978" t="s">
-        <v>2003</v>
       </c>
       <c r="D978" t="s">
         <v>1324</v>
@@ -31987,10 +31990,10 @@
     </row>
     <row r="979" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B979" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C979" t="s">
         <v>2004</v>
-      </c>
-      <c r="C979" t="s">
-        <v>2005</v>
       </c>
       <c r="D979" t="s">
         <v>1324</v>
@@ -32010,10 +32013,10 @@
     </row>
     <row r="980" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B980" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C980" t="s">
         <v>2006</v>
-      </c>
-      <c r="C980" t="s">
-        <v>2007</v>
       </c>
       <c r="D980" t="s">
         <v>1324</v>
@@ -32028,15 +32031,15 @@
         <v>29</v>
       </c>
       <c r="J980" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="981" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B981" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C981" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D981" t="s">
         <v>1324</v>
@@ -32056,10 +32059,10 @@
     </row>
     <row r="982" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B982" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C982" t="s">
         <v>2009</v>
-      </c>
-      <c r="C982" t="s">
-        <v>2010</v>
       </c>
       <c r="D982" t="s">
         <v>1324</v>
@@ -32079,10 +32082,10 @@
     </row>
     <row r="983" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B983" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C983" t="s">
         <v>2011</v>
-      </c>
-      <c r="C983" t="s">
-        <v>2012</v>
       </c>
       <c r="D983" t="s">
         <v>1324</v>
@@ -32100,15 +32103,15 @@
         <v>14</v>
       </c>
       <c r="K983" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="984" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B984" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C984" t="s">
         <v>2013</v>
-      </c>
-      <c r="C984" t="s">
-        <v>2014</v>
       </c>
       <c r="D984" t="s">
         <v>1324</v>
@@ -32126,15 +32129,15 @@
         <v>29</v>
       </c>
       <c r="J984" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="985" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B985" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C985" t="s">
         <v>2015</v>
-      </c>
-      <c r="C985" t="s">
-        <v>2016</v>
       </c>
       <c r="D985" t="s">
         <v>1324</v>
@@ -32152,15 +32155,15 @@
         <v>14</v>
       </c>
       <c r="K985" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="986" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B986" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C986" t="s">
         <v>2018</v>
-      </c>
-      <c r="C986" t="s">
-        <v>2019</v>
       </c>
       <c r="D986" t="s">
         <v>1324</v>
@@ -32180,10 +32183,10 @@
     </row>
     <row r="987" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B987" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C987" t="s">
         <v>2020</v>
-      </c>
-      <c r="C987" t="s">
-        <v>2021</v>
       </c>
       <c r="D987" t="s">
         <v>1324</v>
@@ -32201,15 +32204,15 @@
         <v>14</v>
       </c>
       <c r="K987" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="988" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B988" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C988" t="s">
         <v>2022</v>
-      </c>
-      <c r="C988" t="s">
-        <v>2023</v>
       </c>
       <c r="D988" t="s">
         <v>1324</v>
@@ -32229,10 +32232,10 @@
     </row>
     <row r="989" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B989" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C989" t="s">
         <v>2024</v>
-      </c>
-      <c r="C989" t="s">
-        <v>2025</v>
       </c>
       <c r="D989" t="s">
         <v>1324</v>
@@ -32250,15 +32253,15 @@
         <v>14</v>
       </c>
       <c r="K989" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="990" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B990" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C990" t="s">
         <v>2027</v>
-      </c>
-      <c r="C990" t="s">
-        <v>2028</v>
       </c>
       <c r="D990" t="s">
         <v>1324</v>
@@ -32276,15 +32279,15 @@
         <v>14</v>
       </c>
       <c r="K990" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="991" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B991" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C991" t="s">
         <v>2029</v>
-      </c>
-      <c r="C991" t="s">
-        <v>2030</v>
       </c>
       <c r="D991" t="s">
         <v>1324</v>
@@ -32304,10 +32307,10 @@
     </row>
     <row r="992" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B992" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C992" t="s">
         <v>2031</v>
-      </c>
-      <c r="C992" t="s">
-        <v>2032</v>
       </c>
       <c r="D992" t="s">
         <v>1324</v>
@@ -32327,10 +32330,10 @@
     </row>
     <row r="993" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B993" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C993" t="s">
         <v>2033</v>
-      </c>
-      <c r="C993" t="s">
-        <v>2034</v>
       </c>
       <c r="D993" t="s">
         <v>1324</v>
@@ -32350,10 +32353,10 @@
     </row>
     <row r="994" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B994" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C994" t="s">
         <v>2035</v>
-      </c>
-      <c r="C994" t="s">
-        <v>2036</v>
       </c>
       <c r="D994" t="s">
         <v>1324</v>
@@ -32371,15 +32374,15 @@
         <v>14</v>
       </c>
       <c r="K994" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="995" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B995" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C995" t="s">
         <v>2037</v>
-      </c>
-      <c r="C995" t="s">
-        <v>2038</v>
       </c>
       <c r="D995" t="s">
         <v>1324</v>
@@ -32399,10 +32402,10 @@
     </row>
     <row r="996" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B996" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C996" t="s">
         <v>2039</v>
-      </c>
-      <c r="C996" t="s">
-        <v>2040</v>
       </c>
       <c r="D996" t="s">
         <v>1324</v>
@@ -32420,15 +32423,15 @@
         <v>29</v>
       </c>
       <c r="J996" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="997" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B997" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C997" t="s">
         <v>2041</v>
-      </c>
-      <c r="C997" t="s">
-        <v>2042</v>
       </c>
       <c r="D997" t="s">
         <v>1324</v>
@@ -32446,15 +32449,15 @@
         <v>14</v>
       </c>
       <c r="K997" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="998" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B998" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C998" t="s">
         <v>2043</v>
-      </c>
-      <c r="C998" t="s">
-        <v>2044</v>
       </c>
       <c r="D998" t="s">
         <v>1324</v>
@@ -32474,10 +32477,10 @@
     </row>
     <row r="999" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B999" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C999" t="s">
         <v>2045</v>
-      </c>
-      <c r="C999" t="s">
-        <v>2046</v>
       </c>
       <c r="D999" t="s">
         <v>1324</v>
@@ -32495,15 +32498,15 @@
         <v>29</v>
       </c>
       <c r="J999" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1000" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1000" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C1000" t="s">
         <v>2047</v>
-      </c>
-      <c r="C1000" t="s">
-        <v>2048</v>
       </c>
       <c r="D1000" t="s">
         <v>1324</v>
@@ -32523,10 +32526,10 @@
     </row>
     <row r="1001" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1001" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1001" t="s">
         <v>2049</v>
-      </c>
-      <c r="C1001" t="s">
-        <v>2050</v>
       </c>
       <c r="D1001" t="s">
         <v>1324</v>
@@ -32546,10 +32549,10 @@
     </row>
     <row r="1002" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1002" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C1002" t="s">
         <v>2051</v>
-      </c>
-      <c r="C1002" t="s">
-        <v>2052</v>
       </c>
       <c r="D1002" t="s">
         <v>1324</v>
@@ -32572,7 +32575,7 @@
         <v>1182</v>
       </c>
       <c r="C1003" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="D1003" t="s">
         <v>1324</v>
@@ -32590,15 +32593,15 @@
         <v>14</v>
       </c>
       <c r="K1003" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1004" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1004" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C1004" t="s">
         <v>2055</v>
-      </c>
-      <c r="C1004" t="s">
-        <v>2056</v>
       </c>
       <c r="D1004" t="s">
         <v>1324</v>
@@ -32618,10 +32621,10 @@
     </row>
     <row r="1005" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1005" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C1005" t="s">
         <v>2057</v>
-      </c>
-      <c r="C1005" t="s">
-        <v>2058</v>
       </c>
       <c r="D1005" t="s">
         <v>1324</v>
@@ -32636,15 +32639,15 @@
         <v>14</v>
       </c>
       <c r="K1005" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1006" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1006" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C1006" t="s">
         <v>2060</v>
-      </c>
-      <c r="C1006" t="s">
-        <v>2061</v>
       </c>
       <c r="D1006" t="s">
         <v>1324</v>
@@ -32662,15 +32665,15 @@
         <v>14</v>
       </c>
       <c r="K1006" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1007" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1007" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C1007" t="s">
         <v>2062</v>
-      </c>
-      <c r="C1007" t="s">
-        <v>2063</v>
       </c>
       <c r="D1007" t="s">
         <v>1324</v>
@@ -32690,10 +32693,10 @@
     </row>
     <row r="1008" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1008" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C1008" t="s">
         <v>2064</v>
-      </c>
-      <c r="C1008" t="s">
-        <v>2065</v>
       </c>
       <c r="D1008" t="s">
         <v>1324</v>
@@ -32711,15 +32714,15 @@
         <v>14</v>
       </c>
       <c r="K1008" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1009" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1009" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C1009" t="s">
         <v>2066</v>
-      </c>
-      <c r="C1009" t="s">
-        <v>2067</v>
       </c>
       <c r="D1009" t="s">
         <v>1324</v>
@@ -32737,15 +32740,15 @@
         <v>14</v>
       </c>
       <c r="K1009" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1010" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1010" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C1010" t="s">
         <v>2068</v>
-      </c>
-      <c r="C1010" t="s">
-        <v>2069</v>
       </c>
       <c r="D1010" t="s">
         <v>1324</v>
@@ -32762,10 +32765,10 @@
     </row>
     <row r="1011" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1011" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C1011" t="s">
         <v>2070</v>
-      </c>
-      <c r="C1011" t="s">
-        <v>2071</v>
       </c>
       <c r="D1011" t="s">
         <v>1324</v>
@@ -32782,10 +32785,10 @@
     </row>
     <row r="1012" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1012" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C1012" t="s">
         <v>2072</v>
-      </c>
-      <c r="C1012" t="s">
-        <v>2073</v>
       </c>
       <c r="D1012" t="s">
         <v>1324</v>
@@ -32805,10 +32808,10 @@
     </row>
     <row r="1013" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1013" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C1013" t="s">
         <v>2074</v>
-      </c>
-      <c r="C1013" t="s">
-        <v>2075</v>
       </c>
       <c r="D1013" t="s">
         <v>1324</v>
@@ -32828,10 +32831,10 @@
     </row>
     <row r="1014" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1014" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1014" t="s">
         <v>2076</v>
-      </c>
-      <c r="C1014" t="s">
-        <v>2077</v>
       </c>
       <c r="D1014" t="s">
         <v>1324</v>
@@ -32851,10 +32854,10 @@
     </row>
     <row r="1015" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1015" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1015" t="s">
         <v>2078</v>
-      </c>
-      <c r="C1015" t="s">
-        <v>2079</v>
       </c>
       <c r="D1015" t="s">
         <v>1324</v>
@@ -32874,10 +32877,10 @@
     </row>
     <row r="1016" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1016" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1016" t="s">
         <v>2080</v>
-      </c>
-      <c r="C1016" t="s">
-        <v>2081</v>
       </c>
       <c r="D1016" t="s">
         <v>1324</v>
@@ -32897,10 +32900,10 @@
     </row>
     <row r="1017" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1017" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1017" t="s">
         <v>2082</v>
-      </c>
-      <c r="C1017" t="s">
-        <v>2083</v>
       </c>
       <c r="D1017" t="s">
         <v>1324</v>
@@ -32920,10 +32923,10 @@
     </row>
     <row r="1018" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1018" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1018" t="s">
         <v>2084</v>
-      </c>
-      <c r="C1018" t="s">
-        <v>2085</v>
       </c>
       <c r="D1018" t="s">
         <v>1324</v>
@@ -32940,10 +32943,10 @@
     </row>
     <row r="1019" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1019" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C1019" t="s">
         <v>2086</v>
-      </c>
-      <c r="C1019" t="s">
-        <v>2087</v>
       </c>
       <c r="D1019" t="s">
         <v>1324</v>
@@ -32958,15 +32961,15 @@
         <v>14</v>
       </c>
       <c r="K1019" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1020" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1020" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1020" t="s">
         <v>2089</v>
-      </c>
-      <c r="C1020" t="s">
-        <v>2090</v>
       </c>
       <c r="D1020" t="s">
         <v>1324</v>
@@ -32986,10 +32989,10 @@
     </row>
     <row r="1021" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1021" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C1021" t="s">
         <v>2091</v>
-      </c>
-      <c r="C1021" t="s">
-        <v>2092</v>
       </c>
       <c r="D1021" t="s">
         <v>1324</v>
@@ -33007,15 +33010,15 @@
         <v>14</v>
       </c>
       <c r="K1021" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1022" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1022" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C1022" t="s">
         <v>2093</v>
-      </c>
-      <c r="C1022" t="s">
-        <v>2094</v>
       </c>
       <c r="D1022" t="s">
         <v>1324</v>
@@ -33032,10 +33035,10 @@
     </row>
     <row r="1023" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1023" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C1023" t="s">
         <v>2095</v>
-      </c>
-      <c r="C1023" t="s">
-        <v>2096</v>
       </c>
       <c r="D1023" t="s">
         <v>1324</v>
@@ -33055,16 +33058,16 @@
     </row>
     <row r="1024" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1024" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C1024" t="s">
         <v>2097</v>
       </c>
-      <c r="C1024" t="s">
+      <c r="D1024" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E1024" t="s">
         <v>2098</v>
-      </c>
-      <c r="D1024" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E1024" t="s">
-        <v>2099</v>
       </c>
       <c r="F1024" s="1">
         <v>41243</v>
@@ -33081,10 +33084,10 @@
     </row>
     <row r="1025" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1025" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C1025" t="s">
         <v>2100</v>
-      </c>
-      <c r="C1025" t="s">
-        <v>2101</v>
       </c>
       <c r="D1025" t="s">
         <v>1324</v>
@@ -33102,15 +33105,15 @@
         <v>14</v>
       </c>
       <c r="K1025" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="1026" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1026" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1026" t="s">
         <v>2103</v>
-      </c>
-      <c r="C1026" t="s">
-        <v>2104</v>
       </c>
       <c r="D1026" t="s">
         <v>1324</v>
@@ -33128,15 +33131,15 @@
         <v>14</v>
       </c>
       <c r="K1026" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="1027" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1027" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C1027" t="s">
         <v>2105</v>
-      </c>
-      <c r="C1027" t="s">
-        <v>2106</v>
       </c>
       <c r="D1027" t="s">
         <v>1324</v>
@@ -33156,10 +33159,10 @@
     </row>
     <row r="1028" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1028" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C1028" t="s">
         <v>2107</v>
-      </c>
-      <c r="C1028" t="s">
-        <v>2108</v>
       </c>
       <c r="D1028" t="s">
         <v>1324</v>
@@ -33177,7 +33180,7 @@
         <v>14</v>
       </c>
       <c r="K1028" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="1029" spans="2:11" x14ac:dyDescent="0.2">
@@ -33185,7 +33188,7 @@
         <v>1321</v>
       </c>
       <c r="C1029" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="D1029" t="s">
         <v>1324</v>
@@ -33203,15 +33206,15 @@
         <v>14</v>
       </c>
       <c r="K1029" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="1030" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1030" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C1030" t="s">
         <v>2110</v>
-      </c>
-      <c r="C1030" t="s">
-        <v>2111</v>
       </c>
       <c r="D1030" t="s">
         <v>1324</v>
@@ -33228,10 +33231,10 @@
     </row>
     <row r="1031" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1031" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C1031" t="s">
         <v>2112</v>
-      </c>
-      <c r="C1031" t="s">
-        <v>2113</v>
       </c>
       <c r="D1031" t="s">
         <v>1324</v>
@@ -33251,10 +33254,10 @@
     </row>
     <row r="1032" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1032" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C1032" t="s">
         <v>2114</v>
-      </c>
-      <c r="C1032" t="s">
-        <v>2115</v>
       </c>
       <c r="D1032" t="s">
         <v>1324</v>
@@ -33274,10 +33277,10 @@
     </row>
     <row r="1033" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1033" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C1033" t="s">
         <v>2116</v>
-      </c>
-      <c r="C1033" t="s">
-        <v>2117</v>
       </c>
       <c r="D1033" t="s">
         <v>1324</v>
@@ -33294,10 +33297,10 @@
     </row>
     <row r="1034" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1034" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C1034" t="s">
         <v>2118</v>
-      </c>
-      <c r="C1034" t="s">
-        <v>2119</v>
       </c>
       <c r="D1034" t="s">
         <v>1324</v>
@@ -33315,15 +33318,15 @@
         <v>14</v>
       </c>
       <c r="K1034" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="1035" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1035" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C1035" t="s">
         <v>2121</v>
-      </c>
-      <c r="C1035" t="s">
-        <v>2122</v>
       </c>
       <c r="D1035" t="s">
         <v>1324</v>
@@ -33340,10 +33343,10 @@
     </row>
     <row r="1036" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1036" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C1036" t="s">
         <v>2123</v>
-      </c>
-      <c r="C1036" t="s">
-        <v>2124</v>
       </c>
       <c r="D1036" t="s">
         <v>1324</v>
@@ -33361,15 +33364,15 @@
         <v>14</v>
       </c>
       <c r="K1036" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1037" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1037" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C1037" t="s">
         <v>2125</v>
-      </c>
-      <c r="C1037" t="s">
-        <v>2126</v>
       </c>
       <c r="D1037" t="s">
         <v>1324</v>
@@ -33389,10 +33392,10 @@
     </row>
     <row r="1038" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1038" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C1038" t="s">
         <v>2127</v>
-      </c>
-      <c r="C1038" t="s">
-        <v>2128</v>
       </c>
       <c r="D1038" t="s">
         <v>1324</v>
@@ -33412,16 +33415,16 @@
     </row>
     <row r="1039" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1039" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C1039" t="s">
         <v>2129</v>
       </c>
-      <c r="C1039" t="s">
-        <v>2130</v>
-      </c>
       <c r="D1039" t="s">
         <v>1324</v>
       </c>
       <c r="E1039" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F1039" s="1">
         <v>41275</v>
@@ -33435,10 +33438,10 @@
     </row>
     <row r="1040" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1040" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C1040" t="s">
         <v>2131</v>
-      </c>
-      <c r="C1040" t="s">
-        <v>2132</v>
       </c>
       <c r="D1040" t="s">
         <v>1324</v>
@@ -33458,10 +33461,10 @@
     </row>
     <row r="1041" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1041" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C1041" t="s">
         <v>2133</v>
-      </c>
-      <c r="C1041" t="s">
-        <v>2134</v>
       </c>
       <c r="D1041" t="s">
         <v>1324</v>
@@ -33481,16 +33484,16 @@
     </row>
     <row r="1042" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1042" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C1042" t="s">
         <v>2135</v>
       </c>
-      <c r="C1042" t="s">
-        <v>2136</v>
-      </c>
       <c r="D1042" t="s">
         <v>1324</v>
       </c>
       <c r="E1042" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F1042" s="1">
         <v>42005</v>
@@ -33504,16 +33507,16 @@
     </row>
     <row r="1043" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1043" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C1043" t="s">
         <v>2137</v>
       </c>
-      <c r="C1043" t="s">
-        <v>2138</v>
-      </c>
       <c r="D1043" t="s">
         <v>1324</v>
       </c>
       <c r="E1043" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F1043" s="1">
         <v>42005</v>
@@ -33527,10 +33530,10 @@
     </row>
     <row r="1044" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1044" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C1044" t="s">
         <v>2139</v>
-      </c>
-      <c r="C1044" t="s">
-        <v>2140</v>
       </c>
       <c r="D1044" t="s">
         <v>1324</v>
@@ -33547,10 +33550,10 @@
     </row>
     <row r="1045" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1045" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C1045" t="s">
         <v>2141</v>
-      </c>
-      <c r="C1045" t="s">
-        <v>2142</v>
       </c>
       <c r="D1045" t="s">
         <v>1324</v>
@@ -33570,10 +33573,10 @@
     </row>
     <row r="1046" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1046" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C1046" t="s">
         <v>2143</v>
-      </c>
-      <c r="C1046" t="s">
-        <v>2144</v>
       </c>
       <c r="D1046" t="s">
         <v>1324</v>
@@ -33593,16 +33596,16 @@
     </row>
     <row r="1047" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1047" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C1047" t="s">
         <v>2145</v>
       </c>
-      <c r="C1047" t="s">
-        <v>2146</v>
-      </c>
       <c r="D1047" t="s">
         <v>1324</v>
       </c>
       <c r="E1047" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F1047" s="1">
         <v>42005</v>
@@ -33616,10 +33619,10 @@
     </row>
     <row r="1048" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1048" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C1048" t="s">
         <v>2147</v>
-      </c>
-      <c r="C1048" t="s">
-        <v>2148</v>
       </c>
       <c r="D1048" t="s">
         <v>1324</v>
@@ -33639,7 +33642,7 @@
     </row>
     <row r="1049" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1049" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="C1049" t="s">
         <v>1450</v>
@@ -33662,16 +33665,16 @@
     </row>
     <row r="1050" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1050" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="C1050" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D1050" t="s">
         <v>1324</v>
       </c>
       <c r="E1050" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F1050" s="1">
         <v>42736</v>
@@ -33685,7 +33688,7 @@
     </row>
     <row r="1051" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1051" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="C1051" t="s">
         <v>1452</v>
@@ -33694,7 +33697,7 @@
         <v>1324</v>
       </c>
       <c r="E1051" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F1051" s="1">
         <v>44621</v>
@@ -33706,21 +33709,21 @@
         <v>14</v>
       </c>
       <c r="K1051" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1052" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1052" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C1052" t="s">
         <v>2152</v>
       </c>
-      <c r="C1052" t="s">
-        <v>2153</v>
-      </c>
       <c r="D1052" t="s">
         <v>1324</v>
       </c>
       <c r="E1052" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F1052" s="1">
         <v>44197</v>
@@ -33734,7 +33737,7 @@
     </row>
     <row r="1053" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1053" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="C1053" t="s">
         <v>1456</v>
@@ -33743,7 +33746,7 @@
         <v>1324</v>
       </c>
       <c r="E1053" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F1053" s="1">
         <v>44705</v>
@@ -33758,12 +33761,12 @@
         <v>14</v>
       </c>
       <c r="K1053" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1054" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1054" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="C1054" t="s">
         <v>1458</v>
@@ -33772,7 +33775,7 @@
         <v>1324</v>
       </c>
       <c r="E1054" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F1054" s="1">
         <v>44621</v>
@@ -33784,21 +33787,21 @@
         <v>14</v>
       </c>
       <c r="K1054" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="1055" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1055" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C1055" t="s">
         <v>2158</v>
       </c>
-      <c r="C1055" t="s">
-        <v>2159</v>
-      </c>
       <c r="D1055" t="s">
         <v>1324</v>
       </c>
       <c r="E1055" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F1055" s="1">
         <v>44621</v>
@@ -33810,12 +33813,12 @@
         <v>14</v>
       </c>
       <c r="K1055" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="1056" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1056" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="C1056" t="s">
         <v>1460</v>
@@ -33824,7 +33827,7 @@
         <v>1324</v>
       </c>
       <c r="E1056" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="F1056" s="1">
         <v>44621</v>
@@ -33839,15 +33842,15 @@
         <v>14</v>
       </c>
       <c r="K1056" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="1057" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1057" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1057" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="D1057" t="s">
         <v>1324</v>
@@ -33865,15 +33868,15 @@
         <v>14</v>
       </c>
       <c r="K1057" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1058" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1058" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C1058" t="s">
         <v>2165</v>
-      </c>
-      <c r="C1058" t="s">
-        <v>2166</v>
       </c>
       <c r="D1058" t="s">
         <v>1324</v>
@@ -33896,16 +33899,16 @@
     </row>
     <row r="1059" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1059" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C1059" t="s">
         <v>2167</v>
       </c>
-      <c r="C1059" t="s">
-        <v>2168</v>
-      </c>
       <c r="D1059" t="s">
         <v>1324</v>
       </c>
       <c r="E1059" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F1059" s="1">
         <v>44985</v>
@@ -33920,21 +33923,21 @@
         <v>14</v>
       </c>
       <c r="K1059" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1060" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1060" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C1060" t="s">
         <v>2170</v>
       </c>
-      <c r="C1060" t="s">
-        <v>2171</v>
-      </c>
       <c r="D1060" t="s">
         <v>1324</v>
       </c>
       <c r="E1060" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F1060" s="1">
         <v>29587</v>
@@ -33948,16 +33951,16 @@
     </row>
     <row r="1061" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1061" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C1061" t="s">
         <v>2172</v>
       </c>
-      <c r="C1061" t="s">
-        <v>2173</v>
-      </c>
       <c r="D1061" t="s">
         <v>1324</v>
       </c>
       <c r="E1061" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F1061" s="1">
         <v>36161</v>
@@ -33969,21 +33972,21 @@
         <v>14</v>
       </c>
       <c r="K1061" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1062" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1062" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C1062" t="s">
         <v>2175</v>
       </c>
-      <c r="C1062" t="s">
-        <v>2176</v>
-      </c>
       <c r="D1062" t="s">
         <v>1324</v>
       </c>
       <c r="E1062" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="F1062" s="1">
         <v>2006</v>
@@ -33995,21 +33998,21 @@
         <v>14</v>
       </c>
       <c r="K1062" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1063" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1063" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C1063" t="s">
         <v>2178</v>
       </c>
-      <c r="C1063" t="s">
+      <c r="D1063" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E1063" t="s">
         <v>2179</v>
-      </c>
-      <c r="D1063" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E1063" t="s">
-        <v>2180</v>
       </c>
       <c r="H1063">
         <v>0</v>
@@ -34020,10 +34023,10 @@
     </row>
     <row r="1064" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1064" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C1064" t="s">
         <v>2181</v>
-      </c>
-      <c r="C1064" t="s">
-        <v>2182</v>
       </c>
       <c r="D1064" t="s">
         <v>1324</v>
@@ -34041,18 +34044,18 @@
         <v>1368</v>
       </c>
       <c r="K1064" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1065" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1065" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C1065" t="s">
         <v>2184</v>
       </c>
-      <c r="C1065" t="s">
+      <c r="D1065" t="s">
         <v>2185</v>
-      </c>
-      <c r="D1065" t="s">
-        <v>2186</v>
       </c>
       <c r="F1065" s="1">
         <v>32509</v>
@@ -34069,13 +34072,13 @@
     </row>
     <row r="1066" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1066" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C1066" t="s">
         <v>2187</v>
       </c>
-      <c r="C1066" t="s">
-        <v>2188</v>
-      </c>
       <c r="D1066" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="F1066" s="1">
         <v>37257</v>
@@ -34090,18 +34093,18 @@
         <v>29</v>
       </c>
       <c r="J1066" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1067" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1067" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C1067" t="s">
         <v>2189</v>
       </c>
-      <c r="C1067" t="s">
-        <v>2190</v>
-      </c>
       <c r="D1067" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="F1067" s="1">
         <v>38718</v>
@@ -34118,13 +34121,13 @@
     </row>
     <row r="1068" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1068" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C1068" t="s">
         <v>2191</v>
       </c>
-      <c r="C1068" t="s">
-        <v>2192</v>
-      </c>
       <c r="D1068" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="F1068" s="1">
         <v>37987</v>
@@ -34139,18 +34142,18 @@
         <v>29</v>
       </c>
       <c r="K1068" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1069" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1069" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C1069" t="s">
         <v>2194</v>
       </c>
-      <c r="C1069" t="s">
-        <v>2195</v>
-      </c>
       <c r="D1069" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="F1069" s="1">
         <v>38106</v>
@@ -34165,18 +34168,18 @@
         <v>29</v>
       </c>
       <c r="J1069" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1070" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1070" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C1070" t="s">
         <v>2196</v>
       </c>
-      <c r="C1070" t="s">
-        <v>2197</v>
-      </c>
       <c r="D1070" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="F1070" s="1">
         <v>38219</v>
@@ -34191,18 +34194,18 @@
         <v>29</v>
       </c>
       <c r="J1070" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1071" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1071" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C1071" t="s">
         <v>2198</v>
       </c>
-      <c r="C1071" t="s">
-        <v>2199</v>
-      </c>
       <c r="D1071" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="F1071" s="1">
         <v>38353</v>
@@ -34219,12 +34222,23 @@
     </row>
     <row r="1072" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1072" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="D1072" t="s">
         <v>1196</v>
       </c>
       <c r="I1072" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1073" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1073" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I1073" t="s">
         <v>14</v>
       </c>
     </row>

--- a/TCKT.xlsx
+++ b/TCKT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nghingo/Documents/GitHub/tcvn-text-recogine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BA5A0A-6491-AB4F-AB8B-01344E6D5CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96359B8-5C1D-BE49-8745-3DBB27FE117C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="500" windowWidth="20500" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5229" uniqueCount="2202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5232" uniqueCount="2203">
   <si>
     <t>Mã số</t>
   </si>
@@ -6626,6 +6626,9 @@
   </si>
   <si>
     <t>TCVN 9262:1:2012</t>
+  </si>
+  <si>
+    <t>QCVN QTĐ:7 : 2009 BCT</t>
   </si>
 </sst>
 </file>
@@ -7468,10 +7471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1073"/>
+  <dimension ref="A1:K1074"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1063" workbookViewId="0">
-      <selection activeCell="D1071" sqref="D1071"/>
+    <sheetView tabSelected="1" topLeftCell="A1065" workbookViewId="0">
+      <selection activeCell="B1075" sqref="B1075"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -34242,6 +34245,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="1074" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1074" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I1074" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
